--- a/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835558425890107</v>
+        <v>1.009140598168336</v>
       </c>
       <c r="D2">
-        <v>1.005033639623518</v>
+        <v>1.025930522847528</v>
       </c>
       <c r="E2">
-        <v>0.991481355865876</v>
+        <v>1.020269417554186</v>
       </c>
       <c r="F2">
-        <v>0.993428345290662</v>
+        <v>1.023180309434414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038822149453216</v>
+        <v>1.049373152831921</v>
       </c>
       <c r="J2">
-        <v>1.006239771972937</v>
+        <v>1.031051310832</v>
       </c>
       <c r="K2">
-        <v>1.016423290477776</v>
+        <v>1.037040048333141</v>
       </c>
       <c r="L2">
-        <v>1.003060658691755</v>
+        <v>1.031453408873954</v>
       </c>
       <c r="M2">
-        <v>1.004979999354939</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.034325882033396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916433499634475</v>
+        <v>1.016279907528319</v>
       </c>
       <c r="D3">
-        <v>1.01102569990612</v>
+        <v>1.031438175719921</v>
       </c>
       <c r="E3">
-        <v>0.9982523865150801</v>
+        <v>1.026575040932953</v>
       </c>
       <c r="F3">
-        <v>1.001778751520502</v>
+        <v>1.030242760563273</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041619995248687</v>
+        <v>1.051893984512755</v>
       </c>
       <c r="J3">
-        <v>1.012364447412601</v>
+        <v>1.036336394338101</v>
       </c>
       <c r="K3">
-        <v>1.021519422122424</v>
+        <v>1.041684000976558</v>
       </c>
       <c r="L3">
-        <v>1.008907677328158</v>
+        <v>1.036878816074792</v>
       </c>
       <c r="M3">
-        <v>1.012388923370021</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.040502767727093</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9967018645709865</v>
+        <v>1.020764428250185</v>
       </c>
       <c r="D4">
-        <v>1.014775471643582</v>
+        <v>1.034898875033871</v>
       </c>
       <c r="E4">
-        <v>1.002493437072273</v>
+        <v>1.030541829893926</v>
       </c>
       <c r="F4">
-        <v>1.007005964705533</v>
+        <v>1.034687623231293</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043353720403898</v>
+        <v>1.053462458461657</v>
       </c>
       <c r="J4">
-        <v>1.016190314921128</v>
+        <v>1.039651489706224</v>
       </c>
       <c r="K4">
-        <v>1.024698781392417</v>
+        <v>1.044593585014981</v>
       </c>
       <c r="L4">
-        <v>1.012561861373255</v>
+        <v>1.040285103026501</v>
       </c>
       <c r="M4">
-        <v>1.017020562958496</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.044384676199042</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9987892481806705</v>
+        <v>1.022619123085329</v>
       </c>
       <c r="D5">
-        <v>1.016323120139671</v>
+        <v>1.036330302577962</v>
       </c>
       <c r="E5">
-        <v>1.004244811217548</v>
+        <v>1.03218375668893</v>
       </c>
       <c r="F5">
-        <v>1.009163969046257</v>
+        <v>1.036527931715265</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044065162830265</v>
+        <v>1.054107486853827</v>
       </c>
       <c r="J5">
-        <v>1.017767786812638</v>
+        <v>1.041021349223558</v>
       </c>
       <c r="K5">
-        <v>1.02600868836183</v>
+        <v>1.045795049442341</v>
       </c>
       <c r="L5">
-        <v>1.01406895212801</v>
+        <v>1.041693406275399</v>
       </c>
       <c r="M5">
-        <v>1.018931178807904</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.045990549459299</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.999137500270422</v>
+        <v>1.022928788317701</v>
       </c>
       <c r="D6">
-        <v>1.016581339195574</v>
+        <v>1.036569304564033</v>
       </c>
       <c r="E6">
-        <v>1.004537078832888</v>
+        <v>1.032457975177218</v>
       </c>
       <c r="F6">
-        <v>1.009524062120343</v>
+        <v>1.036835312025485</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044183621540739</v>
+        <v>1.054214965817356</v>
       </c>
       <c r="J6">
-        <v>1.018030890555335</v>
+        <v>1.041249993419226</v>
       </c>
       <c r="K6">
-        <v>1.026227105697092</v>
+        <v>1.045995537171817</v>
       </c>
       <c r="L6">
-        <v>1.014320340658448</v>
+        <v>1.041928511963889</v>
       </c>
       <c r="M6">
-        <v>1.019249902220859</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.046258692931638</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9967299071392279</v>
+        <v>1.02078932880063</v>
       </c>
       <c r="D7">
-        <v>1.014796262175011</v>
+        <v>1.034918092419463</v>
       </c>
       <c r="E7">
-        <v>1.00251696051843</v>
+        <v>1.030563868620658</v>
       </c>
       <c r="F7">
-        <v>1.007034952042561</v>
+        <v>1.034712322726022</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043363293987944</v>
+        <v>1.053471132963589</v>
       </c>
       <c r="J7">
-        <v>1.016211512273192</v>
+        <v>1.039669885787075</v>
       </c>
       <c r="K7">
-        <v>1.02471638732957</v>
+        <v>1.044609723007492</v>
       </c>
       <c r="L7">
-        <v>1.012582111381777</v>
+        <v>1.040304012358415</v>
       </c>
       <c r="M7">
-        <v>1.017046233266933</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.044406234619756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.98632685808243</v>
+        <v>1.011582428013063</v>
       </c>
       <c r="D8">
-        <v>1.007086200223708</v>
+        <v>1.027813988281792</v>
       </c>
       <c r="E8">
-        <v>0.9937999740862732</v>
+        <v>1.022424804736391</v>
       </c>
       <c r="F8">
-        <v>0.9962885259257888</v>
+        <v>1.025593998918328</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03978416363252</v>
+        <v>1.050238462301436</v>
       </c>
       <c r="J8">
-        <v>1.00833926310186</v>
+        <v>1.032859901687706</v>
       </c>
       <c r="K8">
-        <v>1.018171032411278</v>
+        <v>1.038629934061146</v>
       </c>
       <c r="L8">
-        <v>1.005064588835426</v>
+        <v>1.033309349351069</v>
       </c>
       <c r="M8">
-        <v>1.007519007307736</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.036438093856546</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.966526179363229</v>
+        <v>0.9942374770711938</v>
       </c>
       <c r="D9">
-        <v>0.9924343027488673</v>
+        <v>1.014444586806716</v>
       </c>
       <c r="E9">
-        <v>0.9772633563729457</v>
+        <v>1.007143565196853</v>
       </c>
       <c r="F9">
-        <v>0.9758699928770413</v>
+        <v>1.008488675520365</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032842541272215</v>
+        <v>1.044030041024547</v>
       </c>
       <c r="J9">
-        <v>0.9933189978390888</v>
+        <v>1.019995378904403</v>
       </c>
       <c r="K9">
-        <v>1.00565133245762</v>
+        <v>1.02730757847204</v>
       </c>
       <c r="L9">
-        <v>0.9907364154742814</v>
+        <v>1.020121796584817</v>
       </c>
       <c r="M9">
-        <v>0.9893670830763586</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.02144551499443</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9521254420077631</v>
+        <v>0.9817843087530845</v>
       </c>
       <c r="D10">
-        <v>0.981806089552518</v>
+        <v>1.004863473790924</v>
       </c>
       <c r="E10">
-        <v>0.9652840691538831</v>
+        <v>0.9962135589039602</v>
       </c>
       <c r="F10">
-        <v>0.9610456253745465</v>
+        <v>0.9962617003418418</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027711462057857</v>
+        <v>1.039496587461416</v>
       </c>
       <c r="J10">
-        <v>0.9823762672111178</v>
+        <v>1.010739759912438</v>
       </c>
       <c r="K10">
-        <v>0.9965117988220198</v>
+        <v>1.019145468451296</v>
       </c>
       <c r="L10">
-        <v>0.9803097557064863</v>
+        <v>1.010651516917301</v>
       </c>
       <c r="M10">
-        <v>0.9761557297836394</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.010698780580651</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9455472587318846</v>
+        <v>0.976145306382844</v>
       </c>
       <c r="D11">
-        <v>0.9769610100037147</v>
+        <v>1.000531270072952</v>
       </c>
       <c r="E11">
-        <v>0.9598259716818536</v>
+        <v>0.9912756805835901</v>
       </c>
       <c r="F11">
-        <v>0.9542803720633204</v>
+        <v>0.9907391707345951</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025349514586958</v>
+        <v>1.037426883625331</v>
       </c>
       <c r="J11">
-        <v>0.977374910396636</v>
+        <v>1.006545279015953</v>
       </c>
       <c r="K11">
-        <v>0.9923308916340621</v>
+        <v>1.015443174368424</v>
       </c>
       <c r="L11">
-        <v>0.9755474754984661</v>
+        <v>1.006364021814564</v>
       </c>
       <c r="M11">
-        <v>0.970119259806296</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.005837871761226</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9430464582380576</v>
+        <v>0.9740101614532992</v>
       </c>
       <c r="D12">
-        <v>0.9751208701698671</v>
+        <v>0.9988920722641627</v>
       </c>
       <c r="E12">
-        <v>0.9577533561862457</v>
+        <v>0.989407873076295</v>
       </c>
       <c r="F12">
-        <v>0.9517094521910563</v>
+        <v>0.9886503524252012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024449013994903</v>
+        <v>1.0366407884825</v>
       </c>
       <c r="J12">
-        <v>0.97547331543588</v>
+        <v>1.004956692508363</v>
       </c>
       <c r="K12">
-        <v>0.9907407578649927</v>
+        <v>1.01404052924736</v>
       </c>
       <c r="L12">
-        <v>0.9737373023172828</v>
+        <v>1.004740854444039</v>
       </c>
       <c r="M12">
-        <v>0.9678242323044763</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.003998272638934</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.943585589981477</v>
+        <v>0.9744700543950895</v>
       </c>
       <c r="D13">
-        <v>0.9755174878331605</v>
+        <v>0.9992450872427434</v>
       </c>
       <c r="E13">
-        <v>0.9582000668286061</v>
+        <v>0.9898100969574771</v>
       </c>
       <c r="F13">
-        <v>0.9522636549911859</v>
+        <v>0.9891001645686612</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024643260458778</v>
+        <v>1.036810214553791</v>
       </c>
       <c r="J13">
-        <v>0.9758832766053832</v>
+        <v>1.00529887696818</v>
       </c>
       <c r="K13">
-        <v>0.991083592476008</v>
+        <v>1.014342681916364</v>
       </c>
       <c r="L13">
-        <v>0.9741275298494637</v>
+        <v>1.005090458398703</v>
       </c>
       <c r="M13">
-        <v>0.9683190090807641</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.004394463400727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9453417497198059</v>
+        <v>0.975969664120221</v>
       </c>
       <c r="D14">
-        <v>0.9768097540068128</v>
+        <v>1.000396401258784</v>
       </c>
       <c r="E14">
-        <v>0.9596556001719281</v>
+        <v>0.9911219914227738</v>
       </c>
       <c r="F14">
-        <v>0.954069080434545</v>
+        <v>0.9905672935834351</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025275564971033</v>
+        <v>1.037362265999501</v>
       </c>
       <c r="J14">
-        <v>0.9772186464950491</v>
+        <v>1.006414605263281</v>
       </c>
       <c r="K14">
-        <v>0.9922002315402147</v>
+        <v>1.015327804955213</v>
       </c>
       <c r="L14">
-        <v>0.9753987134011233</v>
+        <v>1.006230490366219</v>
       </c>
       <c r="M14">
-        <v>0.9699306636187076</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.005686522243414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9464159825537407</v>
+        <v>0.9768881348531249</v>
       </c>
       <c r="D15">
-        <v>0.9776004712578997</v>
+        <v>1.00110170661779</v>
       </c>
       <c r="E15">
-        <v>0.9605462605990408</v>
+        <v>0.9919257414256527</v>
       </c>
       <c r="F15">
-        <v>0.9551735807356925</v>
+        <v>0.9914661668972751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025662009739458</v>
+        <v>1.03770006745076</v>
       </c>
       <c r="J15">
-        <v>0.9780354571225098</v>
+        <v>1.007097910824626</v>
       </c>
       <c r="K15">
-        <v>0.992883188602764</v>
+        <v>1.015931063986623</v>
       </c>
       <c r="L15">
-        <v>0.9761763325605128</v>
+        <v>1.006928765402943</v>
       </c>
       <c r="M15">
-        <v>0.9709164836909979</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.006477999559715</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525543143292061</v>
+        <v>0.9821530641459931</v>
       </c>
       <c r="D16">
-        <v>0.9821221983738835</v>
+        <v>1.005146918936629</v>
       </c>
       <c r="E16">
-        <v>0.9656402257716107</v>
+        <v>0.9965367134986188</v>
       </c>
       <c r="F16">
-        <v>0.9614868292119189</v>
+        <v>0.996623139144754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027865091081488</v>
+        <v>1.039631592946274</v>
       </c>
       <c r="J16">
-        <v>0.982702292754968</v>
+        <v>1.011013992033253</v>
       </c>
       <c r="K16">
-        <v>0.9967842707273722</v>
+        <v>1.019387455352927</v>
       </c>
       <c r="L16">
-        <v>0.9806202657085951</v>
+        <v>1.010931918930425</v>
       </c>
       <c r="M16">
-        <v>0.9765492574205201</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011016774799457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9563091330896062</v>
+        <v>0.9853872307856313</v>
       </c>
       <c r="D17">
-        <v>0.9848908990726072</v>
+        <v>1.007633603153566</v>
       </c>
       <c r="E17">
-        <v>0.9687600087050622</v>
+        <v>0.9993722420791019</v>
       </c>
       <c r="F17">
-        <v>0.9653503381316891</v>
+        <v>0.9997947327677139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029208112574336</v>
+        <v>1.04081376577561</v>
       </c>
       <c r="J17">
-        <v>0.9855563841764291</v>
+        <v>1.013418773954239</v>
       </c>
       <c r="K17">
-        <v>0.9991691354142279</v>
+        <v>1.021509098531819</v>
       </c>
       <c r="L17">
-        <v>0.9833388950443033</v>
+        <v>1.013391287125734</v>
       </c>
       <c r="M17">
-        <v>0.9799944589450342</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013806362019576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9584666475956877</v>
+        <v>0.9872501219753972</v>
       </c>
       <c r="D18">
-        <v>0.9864826875898376</v>
+        <v>1.009066518217716</v>
       </c>
       <c r="E18">
-        <v>0.9705539193940673</v>
+        <v>1.001006577520792</v>
       </c>
       <c r="F18">
-        <v>0.9675709055765057</v>
+        <v>1.001622893059772</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029978110146391</v>
+        <v>1.04149310828709</v>
       </c>
       <c r="J18">
-        <v>0.9871960709321724</v>
+        <v>1.014803610982546</v>
       </c>
       <c r="K18">
-        <v>1.000538899346</v>
+        <v>1.022730565646784</v>
       </c>
       <c r="L18">
-        <v>0.9849010550196569</v>
+        <v>1.014807958716455</v>
       </c>
       <c r="M18">
-        <v>0.9819739140853717</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01541367193299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9591969376387648</v>
+        <v>0.9878814255636043</v>
       </c>
       <c r="D19">
-        <v>0.9870216303023897</v>
+        <v>1.009552202114927</v>
       </c>
       <c r="E19">
-        <v>0.9711613454515078</v>
+        <v>1.001560603107612</v>
       </c>
       <c r="F19">
-        <v>0.9683226390806164</v>
+        <v>1.002242646177048</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030238451458701</v>
+        <v>1.041723053089285</v>
       </c>
       <c r="J19">
-        <v>0.9877510326689486</v>
+        <v>1.015272851337302</v>
       </c>
       <c r="K19">
-        <v>1.0010024427961</v>
+        <v>1.023144394163591</v>
       </c>
       <c r="L19">
-        <v>0.9854298266312232</v>
+        <v>1.015288053659821</v>
       </c>
       <c r="M19">
-        <v>0.9826439053853838</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015958444342395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.955909688992265</v>
+        <v>0.9850426944196631</v>
       </c>
       <c r="D20">
-        <v>0.9845962645791616</v>
+        <v>1.007368634990413</v>
       </c>
       <c r="E20">
-        <v>0.96842798516609</v>
+        <v>0.9990700613989164</v>
       </c>
       <c r="F20">
-        <v>0.9649392687945879</v>
+        <v>0.9994567252490553</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029065415596215</v>
+        <v>1.040687993519761</v>
       </c>
       <c r="J20">
-        <v>0.985252788086048</v>
+        <v>1.013162625174183</v>
       </c>
       <c r="K20">
-        <v>0.9989154879991914</v>
+        <v>1.02128314159885</v>
       </c>
       <c r="L20">
-        <v>0.9830496772314626</v>
+        <v>1.013129282388914</v>
       </c>
       <c r="M20">
-        <v>0.9796279679777656</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013509134219791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9448262404270238</v>
+        <v>0.975529216768048</v>
       </c>
       <c r="D21">
-        <v>0.9764303657076351</v>
+        <v>1.000058218068445</v>
       </c>
       <c r="E21">
-        <v>0.9592282705653211</v>
+        <v>0.990736625041672</v>
       </c>
       <c r="F21">
-        <v>0.9535390818718614</v>
+        <v>0.9901363239666163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025090025265994</v>
+        <v>1.037200189741922</v>
       </c>
       <c r="J21">
-        <v>0.976826662742782</v>
+        <v>1.006086916778369</v>
       </c>
       <c r="K21">
-        <v>0.9918724666759954</v>
+        <v>1.015038487574837</v>
       </c>
       <c r="L21">
-        <v>0.9750255562337828</v>
+        <v>1.005895646101365</v>
       </c>
       <c r="M21">
-        <v>0.9694575768800408</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005307007693888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9375220306921941</v>
+        <v>0.9693109120448213</v>
       </c>
       <c r="D22">
-        <v>0.9710595911272564</v>
+        <v>0.9952867020205374</v>
       </c>
       <c r="E22">
-        <v>0.9531795223689987</v>
+        <v>0.9853006304120658</v>
       </c>
       <c r="F22">
-        <v>0.9460320080290734</v>
+        <v>0.9840573093516776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022455186196518</v>
+        <v>1.034906326917742</v>
       </c>
       <c r="J22">
-        <v>0.9712723155700662</v>
+        <v>1.001459778454123</v>
       </c>
       <c r="K22">
-        <v>0.9872270219295355</v>
+        <v>1.010952112103034</v>
       </c>
       <c r="L22">
-        <v>0.9697392837265674</v>
+        <v>1.001169019224654</v>
       </c>
       <c r="M22">
-        <v>0.9627541478045224</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9999513509219697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9414281795089415</v>
+        <v>0.9726310942397792</v>
       </c>
       <c r="D23">
-        <v>0.9739306570545276</v>
+        <v>0.9978336807505137</v>
       </c>
       <c r="E23">
-        <v>0.9564128618803851</v>
+        <v>0.9882020222295355</v>
       </c>
       <c r="F23">
-        <v>0.9500460844353706</v>
+        <v>0.9873018500345557</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023865592330549</v>
+        <v>1.036132389294142</v>
       </c>
       <c r="J23">
-        <v>0.9742427376408483</v>
+        <v>1.00393054608041</v>
       </c>
       <c r="K23">
-        <v>0.9897116078617579</v>
+        <v>1.013134365651961</v>
       </c>
       <c r="L23">
-        <v>0.972566038618317</v>
+        <v>1.003692553660111</v>
       </c>
       <c r="M23">
-        <v>0.9663390725775783</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002810373460441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9560902809186769</v>
+        <v>0.9851984480698561</v>
       </c>
       <c r="D24">
-        <v>0.9847294684663769</v>
+        <v>1.007488416676215</v>
       </c>
       <c r="E24">
-        <v>0.9685780917262599</v>
+        <v>0.9992066641398832</v>
       </c>
       <c r="F24">
-        <v>0.9651251147238027</v>
+        <v>0.9996095233548591</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029129935361707</v>
+        <v>1.040744856010618</v>
       </c>
       <c r="J24">
-        <v>0.9853900472030086</v>
+        <v>1.013278422700743</v>
       </c>
       <c r="K24">
-        <v>0.9990301658672386</v>
+        <v>1.021385291251383</v>
       </c>
       <c r="L24">
-        <v>0.9831804348516923</v>
+        <v>1.013247725983201</v>
       </c>
       <c r="M24">
-        <v>0.9797936620089722</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013643499672332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9718393486579376</v>
+        <v>0.9988675052433542</v>
       </c>
       <c r="D25">
-        <v>0.9963621016783205</v>
+        <v>1.018010992194059</v>
       </c>
       <c r="E25">
-        <v>0.9816934099670519</v>
+        <v>1.011216117321174</v>
       </c>
       <c r="F25">
-        <v>0.981344703820773</v>
+        <v>1.013045879035488</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034719595756749</v>
+        <v>1.045700580517136</v>
       </c>
       <c r="J25">
-        <v>0.997353072363931</v>
+        <v>1.023433042554683</v>
       </c>
       <c r="K25">
-        <v>1.009017155062844</v>
+        <v>1.030335999663541</v>
       </c>
       <c r="L25">
-        <v>0.9945827192570974</v>
+        <v>1.023642777352627</v>
       </c>
       <c r="M25">
-        <v>0.994239691356918</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.025444994731776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009140598168336</v>
+        <v>0.9933185500315571</v>
       </c>
       <c r="D2">
-        <v>1.025930522847528</v>
+        <v>1.014608082785909</v>
       </c>
       <c r="E2">
-        <v>1.020269417554186</v>
+        <v>1.000649767249437</v>
       </c>
       <c r="F2">
-        <v>1.023180309434414</v>
+        <v>1.014324213285784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049373152831921</v>
+        <v>1.040730325321009</v>
       </c>
       <c r="J2">
-        <v>1.031051310832</v>
+        <v>1.015700955316581</v>
       </c>
       <c r="K2">
-        <v>1.037040048333141</v>
+        <v>1.025867587123762</v>
       </c>
       <c r="L2">
-        <v>1.031453408873954</v>
+        <v>1.012100057198462</v>
       </c>
       <c r="M2">
-        <v>1.034325882033396</v>
+        <v>1.025587531871989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016279907528319</v>
+        <v>0.9978058593112606</v>
       </c>
       <c r="D3">
-        <v>1.031438175719921</v>
+        <v>1.017880097440372</v>
       </c>
       <c r="E3">
-        <v>1.026575040932953</v>
+        <v>1.004224574086679</v>
       </c>
       <c r="F3">
-        <v>1.030242760563273</v>
+        <v>1.01835924305234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051893984512755</v>
+        <v>1.041645652255655</v>
       </c>
       <c r="J3">
-        <v>1.036336394338101</v>
+        <v>1.018356518057173</v>
       </c>
       <c r="K3">
-        <v>1.041684000976558</v>
+        <v>1.028289198556893</v>
       </c>
       <c r="L3">
-        <v>1.036878816074792</v>
+        <v>1.014803684575204</v>
       </c>
       <c r="M3">
-        <v>1.040502767727093</v>
+        <v>1.028762481836191</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020764428250185</v>
+        <v>1.000651908641663</v>
       </c>
       <c r="D4">
-        <v>1.034898875033871</v>
+        <v>1.019957708534688</v>
       </c>
       <c r="E4">
-        <v>1.030541829893926</v>
+        <v>1.006498144478465</v>
       </c>
       <c r="F4">
-        <v>1.034687623231293</v>
+        <v>1.020923672418743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053462458461657</v>
+        <v>1.042215449173462</v>
       </c>
       <c r="J4">
-        <v>1.039651489706224</v>
+        <v>1.020038953217502</v>
       </c>
       <c r="K4">
-        <v>1.044593585014981</v>
+        <v>1.029821084011674</v>
       </c>
       <c r="L4">
-        <v>1.040285103026501</v>
+        <v>1.016518770211743</v>
       </c>
       <c r="M4">
-        <v>1.044384676199042</v>
+        <v>1.030775959258985</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022619123085329</v>
+        <v>1.001835096979143</v>
       </c>
       <c r="D5">
-        <v>1.036330302577962</v>
+        <v>1.020821937925186</v>
       </c>
       <c r="E5">
-        <v>1.03218375668893</v>
+        <v>1.007444794086867</v>
       </c>
       <c r="F5">
-        <v>1.036527931715265</v>
+        <v>1.021990989345906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054107486853827</v>
+        <v>1.042449709340826</v>
       </c>
       <c r="J5">
-        <v>1.041021349223558</v>
+        <v>1.02073791381736</v>
       </c>
       <c r="K5">
-        <v>1.045795049442341</v>
+        <v>1.030456923862883</v>
       </c>
       <c r="L5">
-        <v>1.041693406275399</v>
+        <v>1.017231822390594</v>
       </c>
       <c r="M5">
-        <v>1.045990549459299</v>
+        <v>1.031612920806985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022928788317701</v>
+        <v>1.002032993772526</v>
       </c>
       <c r="D6">
-        <v>1.036569304564033</v>
+        <v>1.02096651441447</v>
       </c>
       <c r="E6">
-        <v>1.032457975177218</v>
+        <v>1.007603212456427</v>
       </c>
       <c r="F6">
-        <v>1.036835312025485</v>
+        <v>1.022169575320225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054214965817356</v>
+        <v>1.042488735687496</v>
       </c>
       <c r="J6">
-        <v>1.041249993419226</v>
+        <v>1.020854790855227</v>
       </c>
       <c r="K6">
-        <v>1.045995537171817</v>
+        <v>1.030563211823259</v>
       </c>
       <c r="L6">
-        <v>1.041928511963889</v>
+        <v>1.017351086733474</v>
       </c>
       <c r="M6">
-        <v>1.046258692931638</v>
+        <v>1.031752901279062</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02078932880063</v>
+        <v>1.000667770061353</v>
       </c>
       <c r="D7">
-        <v>1.034918092419463</v>
+        <v>1.019969292188119</v>
       </c>
       <c r="E7">
-        <v>1.030563868620658</v>
+        <v>1.00651082924182</v>
       </c>
       <c r="F7">
-        <v>1.034712322726022</v>
+        <v>1.020937975804621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053471132963589</v>
+        <v>1.04221859999705</v>
       </c>
       <c r="J7">
-        <v>1.039669885787075</v>
+        <v>1.020048325182267</v>
       </c>
       <c r="K7">
-        <v>1.044609723007492</v>
+        <v>1.029829611921736</v>
       </c>
       <c r="L7">
-        <v>1.040304012358415</v>
+        <v>1.016528329040565</v>
       </c>
       <c r="M7">
-        <v>1.044406234619756</v>
+        <v>1.030787179746128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011582428013063</v>
+        <v>0.994847270487875</v>
       </c>
       <c r="D8">
-        <v>1.027813988281792</v>
+        <v>1.015722249337544</v>
       </c>
       <c r="E8">
-        <v>1.022424804736391</v>
+        <v>1.001866276303836</v>
       </c>
       <c r="F8">
-        <v>1.025593998918328</v>
+        <v>1.015697724286922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050238462301436</v>
+        <v>1.041044380676539</v>
       </c>
       <c r="J8">
-        <v>1.032859901687706</v>
+        <v>1.016606005690125</v>
       </c>
       <c r="K8">
-        <v>1.038629934061146</v>
+        <v>1.026693382317178</v>
       </c>
       <c r="L8">
-        <v>1.033309349351069</v>
+        <v>1.013021026898129</v>
       </c>
       <c r="M8">
-        <v>1.036438093856546</v>
+        <v>1.026669176726211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9942374770711938</v>
+        <v>0.9841271001331986</v>
       </c>
       <c r="D9">
-        <v>1.014444586806716</v>
+        <v>1.007921747764472</v>
       </c>
       <c r="E9">
-        <v>1.007143565196853</v>
+        <v>0.9933640880690837</v>
       </c>
       <c r="F9">
-        <v>1.008488675520365</v>
+        <v>1.006090313386321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044030041024547</v>
+        <v>1.038798342541081</v>
       </c>
       <c r="J9">
-        <v>1.019995378904403</v>
+        <v>1.01025309736967</v>
       </c>
       <c r="K9">
-        <v>1.02730757847204</v>
+        <v>1.020887594435561</v>
       </c>
       <c r="L9">
-        <v>1.020121796584817</v>
+        <v>1.006565753714736</v>
       </c>
       <c r="M9">
-        <v>1.02144551499443</v>
+        <v>1.019085346313138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9817843087530845</v>
+        <v>0.9766343103045195</v>
       </c>
       <c r="D10">
-        <v>1.004863473790924</v>
+        <v>1.002488693626621</v>
       </c>
       <c r="E10">
-        <v>0.9962135589039602</v>
+        <v>0.9874602422951277</v>
       </c>
       <c r="F10">
-        <v>0.9962617003418418</v>
+        <v>0.9994087561464038</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039496587461416</v>
+        <v>1.037174981890823</v>
       </c>
       <c r="J10">
-        <v>1.010739759912438</v>
+        <v>1.005806656080876</v>
       </c>
       <c r="K10">
-        <v>1.019145468451296</v>
+        <v>1.016813158856744</v>
       </c>
       <c r="L10">
-        <v>1.010651516917301</v>
+        <v>1.002059658128933</v>
       </c>
       <c r="M10">
-        <v>1.010698780580651</v>
+        <v>1.013788693895439</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.976145306382844</v>
+        <v>0.9732994938378704</v>
       </c>
       <c r="D11">
-        <v>1.000531270072952</v>
+        <v>1.000076156296972</v>
       </c>
       <c r="E11">
-        <v>0.9912756805835901</v>
+        <v>0.9848426108474005</v>
       </c>
       <c r="F11">
-        <v>0.9907391707345951</v>
+        <v>0.9964438085049371</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037426883625331</v>
+        <v>1.03644045479406</v>
       </c>
       <c r="J11">
-        <v>1.006545279015953</v>
+        <v>1.003826832927646</v>
       </c>
       <c r="K11">
-        <v>1.015443174368424</v>
+        <v>1.014996636564652</v>
       </c>
       <c r="L11">
-        <v>1.006364021814564</v>
+        <v>1.000056148401553</v>
       </c>
       <c r="M11">
-        <v>1.005837871761226</v>
+        <v>1.011433102450287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9740101614532992</v>
+        <v>0.9720464520327008</v>
       </c>
       <c r="D12">
-        <v>0.9988920722641627</v>
+        <v>0.9991705832620849</v>
       </c>
       <c r="E12">
-        <v>0.989407873076295</v>
+        <v>0.9838606226223829</v>
       </c>
       <c r="F12">
-        <v>0.9886503524252012</v>
+        <v>0.9953311460938563</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0366407884825</v>
+        <v>1.036162713802639</v>
       </c>
       <c r="J12">
-        <v>1.004956692508363</v>
+        <v>1.003082850710506</v>
       </c>
       <c r="K12">
-        <v>1.01404052924736</v>
+        <v>1.014313690857408</v>
       </c>
       <c r="L12">
-        <v>1.004740854444039</v>
+        <v>0.9993037002570667</v>
       </c>
       <c r="M12">
-        <v>1.003998272638934</v>
+        <v>1.010548343962762</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9744700543950895</v>
+        <v>0.972315895615436</v>
       </c>
       <c r="D13">
-        <v>0.9992450872427434</v>
+        <v>0.9993652666774135</v>
       </c>
       <c r="E13">
-        <v>0.9898100969574771</v>
+        <v>0.9840717087577965</v>
       </c>
       <c r="F13">
-        <v>0.9891001645686612</v>
+        <v>0.9955703389732513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036810214553791</v>
+        <v>1.036222514788417</v>
       </c>
       <c r="J13">
-        <v>1.00529887696818</v>
+        <v>1.003242832791646</v>
       </c>
       <c r="K13">
-        <v>1.014342681916364</v>
+        <v>1.014460562463761</v>
       </c>
       <c r="L13">
-        <v>1.005090458398703</v>
+        <v>0.9994654830960046</v>
       </c>
       <c r="M13">
-        <v>1.004394463400727</v>
+        <v>1.010738578202341</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.975969664120221</v>
+        <v>0.9731962141924138</v>
       </c>
       <c r="D14">
-        <v>1.000396401258784</v>
+        <v>1.000001496735042</v>
       </c>
       <c r="E14">
-        <v>0.9911219914227738</v>
+        <v>0.9847616398474595</v>
       </c>
       <c r="F14">
-        <v>0.9905672935834351</v>
+        <v>0.99635207038475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037362265999501</v>
+        <v>1.036417597642775</v>
       </c>
       <c r="J14">
-        <v>1.006414605263281</v>
+        <v>1.003765512734049</v>
       </c>
       <c r="K14">
-        <v>1.015327804955213</v>
+        <v>1.014940353653776</v>
       </c>
       <c r="L14">
-        <v>1.006230490366219</v>
+        <v>0.9999941215701882</v>
       </c>
       <c r="M14">
-        <v>1.005686522243414</v>
+        <v>1.011360170433749</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9768881348531249</v>
+        <v>0.9737366832906833</v>
       </c>
       <c r="D15">
-        <v>1.00110170661779</v>
+        <v>1.000392233411771</v>
       </c>
       <c r="E15">
-        <v>0.9919257414256527</v>
+        <v>0.9851854309870798</v>
       </c>
       <c r="F15">
-        <v>0.9914661668972751</v>
+        <v>0.9968321995982224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03770006745076</v>
+        <v>1.036537139795495</v>
       </c>
       <c r="J15">
-        <v>1.007097910824626</v>
+        <v>1.004086402651683</v>
       </c>
       <c r="K15">
-        <v>1.015931063986623</v>
+        <v>1.015234870082571</v>
       </c>
       <c r="L15">
-        <v>1.006928765402943</v>
+        <v>1.000318727092674</v>
       </c>
       <c r="M15">
-        <v>1.006477999559715</v>
+        <v>1.011741842899044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9821530641459931</v>
+        <v>0.9768536628119532</v>
       </c>
       <c r="D16">
-        <v>1.005146918936629</v>
+        <v>1.002647505264533</v>
       </c>
       <c r="E16">
-        <v>0.9965367134986188</v>
+        <v>0.9876326352378993</v>
       </c>
       <c r="F16">
-        <v>0.996623139144754</v>
+        <v>0.9996039701946128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039631592946274</v>
+        <v>1.037223051057039</v>
       </c>
       <c r="J16">
-        <v>1.011013992033253</v>
+        <v>1.005936868790625</v>
       </c>
       <c r="K16">
-        <v>1.019387455352927</v>
+        <v>1.016932584429527</v>
       </c>
       <c r="L16">
-        <v>1.010931918930425</v>
+        <v>1.002191488861158</v>
       </c>
       <c r="M16">
-        <v>1.011016774799457</v>
+        <v>1.013943679982646</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853872307856313</v>
+        <v>0.9787841401299463</v>
       </c>
       <c r="D17">
-        <v>1.007633603153566</v>
+        <v>1.004045817572849</v>
       </c>
       <c r="E17">
-        <v>0.9993722420791019</v>
+        <v>0.9891509772480406</v>
       </c>
       <c r="F17">
-        <v>0.9997947327677139</v>
+        <v>1.001323022422463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04081376577561</v>
+        <v>1.037644736850093</v>
       </c>
       <c r="J17">
-        <v>1.013418773954239</v>
+        <v>1.007082754783362</v>
       </c>
       <c r="K17">
-        <v>1.021509098531819</v>
+        <v>1.017983278882979</v>
       </c>
       <c r="L17">
-        <v>1.013391287125734</v>
+        <v>1.003351941256849</v>
       </c>
       <c r="M17">
-        <v>1.013806362019576</v>
+        <v>1.015307893961646</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9872501219753972</v>
+        <v>0.9799014878975095</v>
       </c>
       <c r="D18">
-        <v>1.009066518217716</v>
+        <v>1.004855672367722</v>
       </c>
       <c r="E18">
-        <v>1.001006577520792</v>
+        <v>0.9900307272816458</v>
       </c>
       <c r="F18">
-        <v>1.001622893059772</v>
+        <v>1.002318829831062</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04149310828709</v>
+        <v>1.037887661148076</v>
       </c>
       <c r="J18">
-        <v>1.014803610982546</v>
+        <v>1.00774590226022</v>
       </c>
       <c r="K18">
-        <v>1.022730565646784</v>
+        <v>1.018591113673917</v>
       </c>
       <c r="L18">
-        <v>1.014807958716455</v>
+        <v>1.004023791209746</v>
       </c>
       <c r="M18">
-        <v>1.01541367193299</v>
+        <v>1.0160976569362</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9878814255636043</v>
+        <v>0.9802810268335619</v>
       </c>
       <c r="D19">
-        <v>1.009552202114927</v>
+        <v>1.00513084821128</v>
       </c>
       <c r="E19">
-        <v>1.001560603107612</v>
+        <v>0.9903297173164675</v>
       </c>
       <c r="F19">
-        <v>1.002242646177048</v>
+        <v>1.002657222829163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041723053089285</v>
+        <v>1.037969981377235</v>
       </c>
       <c r="J19">
-        <v>1.015272851337302</v>
+        <v>1.007971143347</v>
       </c>
       <c r="K19">
-        <v>1.023144394163591</v>
+        <v>1.018797529005166</v>
       </c>
       <c r="L19">
-        <v>1.015288053659821</v>
+        <v>1.004252034286781</v>
       </c>
       <c r="M19">
-        <v>1.015958444342395</v>
+        <v>1.016365948151795</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9850426944196631</v>
+        <v>0.9785779199929945</v>
       </c>
       <c r="D20">
-        <v>1.007368634990413</v>
+        <v>1.003896390446038</v>
       </c>
       <c r="E20">
-        <v>0.9990700613989164</v>
+        <v>0.9889886844111243</v>
       </c>
       <c r="F20">
-        <v>0.9994567252490553</v>
+        <v>1.001139300661726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040687993519761</v>
+        <v>1.037599809281024</v>
       </c>
       <c r="J20">
-        <v>1.013162625174183</v>
+        <v>1.006960355681936</v>
       </c>
       <c r="K20">
-        <v>1.02128314159885</v>
+        <v>1.017871070795371</v>
       </c>
       <c r="L20">
-        <v>1.013129282388914</v>
+        <v>1.003227957925644</v>
       </c>
       <c r="M20">
-        <v>1.013509134219791</v>
+        <v>1.015162146380222</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.975529216768048</v>
+        <v>0.9729373846293078</v>
       </c>
       <c r="D21">
-        <v>1.000058218068445</v>
+        <v>0.9998144073369941</v>
       </c>
       <c r="E21">
-        <v>0.990736625041672</v>
+        <v>0.984558743699239</v>
       </c>
       <c r="F21">
-        <v>0.9901363239666163</v>
+        <v>0.9961221879634571</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037200189741922</v>
+        <v>1.036360287320735</v>
       </c>
       <c r="J21">
-        <v>1.006086916778369</v>
+        <v>1.003611836948496</v>
       </c>
       <c r="K21">
-        <v>1.015038487574837</v>
+        <v>1.014799296681716</v>
       </c>
       <c r="L21">
-        <v>1.005895646101365</v>
+        <v>0.9998386818852008</v>
       </c>
       <c r="M21">
-        <v>1.005307007693888</v>
+        <v>1.01117740099891</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9693109120448213</v>
+        <v>0.9693075574059786</v>
       </c>
       <c r="D22">
-        <v>0.9952867020205374</v>
+        <v>0.9971929945303646</v>
       </c>
       <c r="E22">
-        <v>0.9853006304120658</v>
+        <v>0.9817171753809538</v>
       </c>
       <c r="F22">
-        <v>0.9840573093516776</v>
+        <v>0.992901762478544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034906326917742</v>
+        <v>1.035552486488544</v>
       </c>
       <c r="J22">
-        <v>1.001459778454123</v>
+        <v>1.001456584839234</v>
       </c>
       <c r="K22">
-        <v>1.010952112103034</v>
+        <v>1.012820264596866</v>
       </c>
       <c r="L22">
-        <v>1.001169019224654</v>
+        <v>0.9976597325102982</v>
       </c>
       <c r="M22">
-        <v>0.9999513509219697</v>
+        <v>1.008615160633705</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9726310942397792</v>
+        <v>0.9712399716243807</v>
       </c>
       <c r="D23">
-        <v>0.9978336807505137</v>
+        <v>0.998588013111866</v>
       </c>
       <c r="E23">
-        <v>0.9882020222295355</v>
+        <v>0.9832290503897573</v>
       </c>
       <c r="F23">
-        <v>0.9873018500345557</v>
+        <v>0.9946154219358352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036132389294142</v>
+        <v>1.035983470404763</v>
       </c>
       <c r="J23">
-        <v>1.00393054608041</v>
+        <v>1.002603996732113</v>
       </c>
       <c r="K23">
-        <v>1.013134365651961</v>
+        <v>1.013874032333346</v>
       </c>
       <c r="L23">
-        <v>1.003692553660111</v>
+        <v>0.9988195203164885</v>
       </c>
       <c r="M23">
-        <v>1.002810373460441</v>
+        <v>1.009979004038594</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9851984480698561</v>
+        <v>0.9786711287242403</v>
       </c>
       <c r="D24">
-        <v>1.007488416676215</v>
+        <v>1.003963927892394</v>
       </c>
       <c r="E24">
-        <v>0.9992066641398832</v>
+        <v>0.9890620356732273</v>
       </c>
       <c r="F24">
-        <v>0.9996095233548591</v>
+        <v>1.001222337858382</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040744856010618</v>
+        <v>1.037620119492134</v>
       </c>
       <c r="J24">
-        <v>1.013278422700743</v>
+        <v>1.007015678695541</v>
       </c>
       <c r="K24">
-        <v>1.021385291251383</v>
+        <v>1.017921788280026</v>
       </c>
       <c r="L24">
-        <v>1.013247725983201</v>
+        <v>1.003283996148261</v>
       </c>
       <c r="M24">
-        <v>1.013643499672332</v>
+        <v>1.015228021823694</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9988675052433542</v>
+        <v>0.9869568626863507</v>
       </c>
       <c r="D25">
-        <v>1.018010992194059</v>
+        <v>1.009977857063313</v>
       </c>
       <c r="E25">
-        <v>1.011216117321174</v>
+        <v>0.9956019612205085</v>
       </c>
       <c r="F25">
-        <v>1.013045879035488</v>
+        <v>1.008620846668069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045700580517136</v>
+        <v>1.039400660884047</v>
       </c>
       <c r="J25">
-        <v>1.023433042554683</v>
+        <v>1.011931297128487</v>
       </c>
       <c r="K25">
-        <v>1.030335999663541</v>
+        <v>1.022423229393361</v>
       </c>
       <c r="L25">
-        <v>1.023642777352627</v>
+        <v>1.008268936912412</v>
       </c>
       <c r="M25">
-        <v>1.025444994731776</v>
+        <v>1.021086793069226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9933185500315571</v>
+        <v>1.026327809050455</v>
       </c>
       <c r="D2">
-        <v>1.014608082785909</v>
+        <v>1.033934170463273</v>
       </c>
       <c r="E2">
-        <v>1.000649767249437</v>
+        <v>1.026562891491227</v>
       </c>
       <c r="F2">
-        <v>1.014324213285784</v>
+        <v>1.041029263270844</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040730325321009</v>
+        <v>1.030972423753723</v>
       </c>
       <c r="J2">
-        <v>1.015700955316581</v>
+        <v>1.031491865453045</v>
       </c>
       <c r="K2">
-        <v>1.025867587123762</v>
+        <v>1.036735092774435</v>
       </c>
       <c r="L2">
-        <v>1.012100057198462</v>
+        <v>1.02938517384718</v>
       </c>
       <c r="M2">
-        <v>1.025587531871989</v>
+        <v>1.043809936069994</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9978058593112606</v>
+        <v>1.027284868655318</v>
       </c>
       <c r="D3">
-        <v>1.017880097440372</v>
+        <v>1.034652058386466</v>
       </c>
       <c r="E3">
-        <v>1.004224574086679</v>
+        <v>1.027375804996841</v>
       </c>
       <c r="F3">
-        <v>1.01835924305234</v>
+        <v>1.041943570300468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041645652255655</v>
+        <v>1.031104258443841</v>
       </c>
       <c r="J3">
-        <v>1.018356518057173</v>
+        <v>1.032088599008431</v>
       </c>
       <c r="K3">
-        <v>1.028289198556893</v>
+        <v>1.037262307209987</v>
       </c>
       <c r="L3">
-        <v>1.014803684575204</v>
+        <v>1.030005613419861</v>
       </c>
       <c r="M3">
-        <v>1.028762481836191</v>
+        <v>1.044534514629731</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000651908641663</v>
+        <v>1.02790469430447</v>
       </c>
       <c r="D4">
-        <v>1.019957708534688</v>
+        <v>1.035116844112886</v>
       </c>
       <c r="E4">
-        <v>1.006498144478465</v>
+        <v>1.027902660592929</v>
       </c>
       <c r="F4">
-        <v>1.020923672418743</v>
+        <v>1.042535956090852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042215449173462</v>
+        <v>1.031188277057087</v>
       </c>
       <c r="J4">
-        <v>1.020038953217502</v>
+        <v>1.032474676121379</v>
       </c>
       <c r="K4">
-        <v>1.029821084011674</v>
+        <v>1.037603044275085</v>
       </c>
       <c r="L4">
-        <v>1.016518770211743</v>
+        <v>1.030407276591723</v>
       </c>
       <c r="M4">
-        <v>1.030775959258985</v>
+        <v>1.045003503623353</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001835096979143</v>
+        <v>1.028165398288454</v>
       </c>
       <c r="D5">
-        <v>1.020821937925186</v>
+        <v>1.035312301825979</v>
       </c>
       <c r="E5">
-        <v>1.007444794086867</v>
+        <v>1.028124351883175</v>
       </c>
       <c r="F5">
-        <v>1.021990989345906</v>
+        <v>1.042785177462964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042449709340826</v>
+        <v>1.031223289755673</v>
       </c>
       <c r="J5">
-        <v>1.02073791381736</v>
+        <v>1.032636970101201</v>
       </c>
       <c r="K5">
-        <v>1.030456923862883</v>
+        <v>1.037746191859674</v>
       </c>
       <c r="L5">
-        <v>1.017231822390594</v>
+        <v>1.030576181941058</v>
       </c>
       <c r="M5">
-        <v>1.031612920806985</v>
+        <v>1.045200698402348</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002032993772526</v>
+        <v>1.028209179187396</v>
       </c>
       <c r="D6">
-        <v>1.02096651441447</v>
+        <v>1.035345123617064</v>
       </c>
       <c r="E6">
-        <v>1.007603212456427</v>
+        <v>1.028161586584383</v>
       </c>
       <c r="F6">
-        <v>1.022169575320225</v>
+        <v>1.04282703348028</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042488735687496</v>
+        <v>1.031229150421788</v>
       </c>
       <c r="J6">
-        <v>1.020854790855227</v>
+        <v>1.032664219192287</v>
       </c>
       <c r="K6">
-        <v>1.030563211823259</v>
+        <v>1.03777022117406</v>
       </c>
       <c r="L6">
-        <v>1.017351086733474</v>
+        <v>1.030604544567486</v>
       </c>
       <c r="M6">
-        <v>1.031752901279062</v>
+        <v>1.045233810101291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000667770061353</v>
+        <v>1.027908177337089</v>
       </c>
       <c r="D7">
-        <v>1.019969292188119</v>
+        <v>1.035119455587451</v>
       </c>
       <c r="E7">
-        <v>1.00651082924182</v>
+        <v>1.027905622053969</v>
       </c>
       <c r="F7">
-        <v>1.020937975804621</v>
+        <v>1.042539285484224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04221859999705</v>
+        <v>1.031188746112258</v>
       </c>
       <c r="J7">
-        <v>1.020048325182267</v>
+        <v>1.032476844753196</v>
       </c>
       <c r="K7">
-        <v>1.029829611921736</v>
+        <v>1.037604957407659</v>
       </c>
       <c r="L7">
-        <v>1.016528329040565</v>
+        <v>1.030409533333274</v>
       </c>
       <c r="M7">
-        <v>1.030787179746128</v>
+        <v>1.045006138426275</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.994847270487875</v>
+        <v>1.026651138580373</v>
       </c>
       <c r="D8">
-        <v>1.015722249337544</v>
+        <v>1.034176728455599</v>
       </c>
       <c r="E8">
-        <v>1.001866276303836</v>
+        <v>1.026837443372791</v>
       </c>
       <c r="F8">
-        <v>1.015697724286922</v>
+        <v>1.041338097704046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041044380676539</v>
+        <v>1.031017244102342</v>
       </c>
       <c r="J8">
-        <v>1.016606005690125</v>
+        <v>1.031693543971738</v>
       </c>
       <c r="K8">
-        <v>1.026693382317178</v>
+        <v>1.03691335075156</v>
       </c>
       <c r="L8">
-        <v>1.013021026898129</v>
+        <v>1.029594812809339</v>
       </c>
       <c r="M8">
-        <v>1.026669176726211</v>
+        <v>1.044054781396932</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9841271001331986</v>
+        <v>1.02444028580838</v>
       </c>
       <c r="D9">
-        <v>1.007921747764472</v>
+        <v>1.032517611180028</v>
       </c>
       <c r="E9">
-        <v>0.9933640880690837</v>
+        <v>1.024961718060623</v>
       </c>
       <c r="F9">
-        <v>1.006090313386321</v>
+        <v>1.039227398532732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038798342541081</v>
+        <v>1.030705201477232</v>
       </c>
       <c r="J9">
-        <v>1.01025309736967</v>
+        <v>1.03031293423995</v>
       </c>
       <c r="K9">
-        <v>1.020887594435561</v>
+        <v>1.035691590962966</v>
       </c>
       <c r="L9">
-        <v>1.006565753714736</v>
+        <v>1.028160729648756</v>
       </c>
       <c r="M9">
-        <v>1.019085346313138</v>
+        <v>1.042379483940625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9766343103045195</v>
+        <v>1.022969271401684</v>
       </c>
       <c r="D10">
-        <v>1.002488693626621</v>
+        <v>1.031413023755124</v>
       </c>
       <c r="E10">
-        <v>0.9874602422951277</v>
+        <v>1.023715714828007</v>
       </c>
       <c r="F10">
-        <v>0.9994087561464038</v>
+        <v>1.037824351427936</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037174981890823</v>
+        <v>1.030490594060963</v>
       </c>
       <c r="J10">
-        <v>1.005806656080876</v>
+        <v>1.02939236299889</v>
       </c>
       <c r="K10">
-        <v>1.016813158856744</v>
+        <v>1.034875091508912</v>
       </c>
       <c r="L10">
-        <v>1.002059658128933</v>
+        <v>1.027205785615194</v>
       </c>
       <c r="M10">
-        <v>1.013788693895439</v>
+        <v>1.041263444447964</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9732994938378704</v>
+        <v>1.022333002344295</v>
       </c>
       <c r="D11">
-        <v>1.000076156296972</v>
+        <v>1.030935096906643</v>
       </c>
       <c r="E11">
-        <v>0.9848426108474005</v>
+        <v>1.023177261423274</v>
       </c>
       <c r="F11">
-        <v>0.9964438085049371</v>
+        <v>1.037217803750861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03644045479406</v>
+        <v>1.030396113085392</v>
       </c>
       <c r="J11">
-        <v>1.003826832927646</v>
+        <v>1.028993718768648</v>
       </c>
       <c r="K11">
-        <v>1.014996636564652</v>
+        <v>1.034521079020396</v>
       </c>
       <c r="L11">
-        <v>1.000056148401553</v>
+        <v>1.026792561138263</v>
       </c>
       <c r="M11">
-        <v>1.011433102450287</v>
+        <v>1.040780398568353</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9720464520327008</v>
+        <v>1.022096768213192</v>
       </c>
       <c r="D12">
-        <v>0.9991705832620849</v>
+        <v>1.0307576301433</v>
       </c>
       <c r="E12">
-        <v>0.9838606226223829</v>
+        <v>1.022977418603912</v>
       </c>
       <c r="F12">
-        <v>0.9953311460938563</v>
+        <v>1.036992653754951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036162713802639</v>
+        <v>1.030360785616719</v>
       </c>
       <c r="J12">
-        <v>1.003082850710506</v>
+        <v>1.028845640889971</v>
       </c>
       <c r="K12">
-        <v>1.014313690857408</v>
+        <v>1.03438951454234</v>
       </c>
       <c r="L12">
-        <v>0.9993037002570667</v>
+        <v>1.026639113164868</v>
       </c>
       <c r="M12">
-        <v>1.010548343962762</v>
+        <v>1.040601006099229</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.972315895615436</v>
+        <v>1.022147436492011</v>
       </c>
       <c r="D13">
-        <v>0.9993652666774135</v>
+        <v>1.030795694784428</v>
       </c>
       <c r="E13">
-        <v>0.9840717087577965</v>
+        <v>1.023020278180429</v>
       </c>
       <c r="F13">
-        <v>0.9955703389732513</v>
+        <v>1.037040942435956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036222514788417</v>
+        <v>1.03036837401521</v>
       </c>
       <c r="J13">
-        <v>1.003242832791646</v>
+        <v>1.028877404247788</v>
       </c>
       <c r="K13">
-        <v>1.014460562463761</v>
+        <v>1.034417738651237</v>
       </c>
       <c r="L13">
-        <v>0.9994654830960046</v>
+        <v>1.026672026358896</v>
       </c>
       <c r="M13">
-        <v>1.010738578202341</v>
+        <v>1.040639484912228</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9731962141924138</v>
+        <v>1.022313473019909</v>
       </c>
       <c r="D14">
-        <v>1.000001496735042</v>
+        <v>1.030920426286735</v>
       </c>
       <c r="E14">
-        <v>0.9847616398474595</v>
+        <v>1.023160739025567</v>
       </c>
       <c r="F14">
-        <v>0.99635207038475</v>
+        <v>1.037199189737808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036417597642775</v>
+        <v>1.030393197656459</v>
       </c>
       <c r="J14">
-        <v>1.003765512734049</v>
+        <v>1.028981478674111</v>
       </c>
       <c r="K14">
-        <v>1.014940353653776</v>
+        <v>1.034510205250393</v>
       </c>
       <c r="L14">
-        <v>0.9999941215701882</v>
+        <v>1.026779876218174</v>
       </c>
       <c r="M14">
-        <v>1.011360170433749</v>
+        <v>1.040765569265248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9737366832906833</v>
+        <v>1.022415787481829</v>
       </c>
       <c r="D15">
-        <v>1.000392233411771</v>
+        <v>1.030997285018189</v>
       </c>
       <c r="E15">
-        <v>0.9851854309870798</v>
+        <v>1.023247303194682</v>
       </c>
       <c r="F15">
-        <v>0.9968321995982224</v>
+        <v>1.037296710886118</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036537139795495</v>
+        <v>1.030408461458443</v>
       </c>
       <c r="J15">
-        <v>1.004086402651683</v>
+        <v>1.029045601906751</v>
       </c>
       <c r="K15">
-        <v>1.015234870082571</v>
+        <v>1.034567167931664</v>
       </c>
       <c r="L15">
-        <v>1.000318727092674</v>
+        <v>1.026846331672059</v>
       </c>
       <c r="M15">
-        <v>1.011741842899044</v>
+        <v>1.040843258310763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9768536628119532</v>
+        <v>1.023011513093559</v>
       </c>
       <c r="D16">
-        <v>1.002647505264533</v>
+        <v>1.031444750037035</v>
       </c>
       <c r="E16">
-        <v>0.9876326352378993</v>
+        <v>1.023751472955808</v>
       </c>
       <c r="F16">
-        <v>0.9996039701946128</v>
+        <v>1.037864626790366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037223051057039</v>
+        <v>1.030496831744453</v>
       </c>
       <c r="J16">
-        <v>1.005936868790625</v>
+        <v>1.029418819136944</v>
       </c>
       <c r="K16">
-        <v>1.016932584429527</v>
+        <v>1.034898576490777</v>
       </c>
       <c r="L16">
-        <v>1.002191488861158</v>
+        <v>1.027233215794957</v>
       </c>
       <c r="M16">
-        <v>1.013943679982646</v>
+        <v>1.041295507070554</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9787841401299463</v>
+        <v>1.023385381352319</v>
       </c>
       <c r="D17">
-        <v>1.004045817572849</v>
+        <v>1.031725532240765</v>
       </c>
       <c r="E17">
-        <v>0.9891509772480406</v>
+        <v>1.024068013886138</v>
       </c>
       <c r="F17">
-        <v>1.001323022422463</v>
+        <v>1.038221129082794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037644736850093</v>
+        <v>1.030551848264283</v>
       </c>
       <c r="J17">
-        <v>1.007082754783362</v>
+        <v>1.029652920879071</v>
       </c>
       <c r="K17">
-        <v>1.017983278882979</v>
+        <v>1.035106337156902</v>
       </c>
       <c r="L17">
-        <v>1.003351941256849</v>
+        <v>1.027475971700072</v>
       </c>
       <c r="M17">
-        <v>1.015307893961646</v>
+        <v>1.041579246953994</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9799014878975095</v>
+        <v>1.023603518887262</v>
       </c>
       <c r="D18">
-        <v>1.004855672367722</v>
+        <v>1.031889343043635</v>
       </c>
       <c r="E18">
-        <v>0.9900307272816458</v>
+        <v>1.024252750410497</v>
       </c>
       <c r="F18">
-        <v>1.002318829831062</v>
+        <v>1.038429165392149</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037887661148076</v>
+        <v>1.03058378844283</v>
       </c>
       <c r="J18">
-        <v>1.00774590226022</v>
+        <v>1.029789465427152</v>
       </c>
       <c r="K18">
-        <v>1.018591113673917</v>
+        <v>1.035227475710364</v>
       </c>
       <c r="L18">
-        <v>1.004023791209746</v>
+        <v>1.02761759334359</v>
       </c>
       <c r="M18">
-        <v>1.0160976569362</v>
+        <v>1.041744767476727</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9802810268335619</v>
+        <v>1.023677909403233</v>
       </c>
       <c r="D19">
-        <v>1.00513084821128</v>
+        <v>1.031945204236763</v>
       </c>
       <c r="E19">
-        <v>0.9903297173164675</v>
+        <v>1.024315758314632</v>
       </c>
       <c r="F19">
-        <v>1.002657222829163</v>
+        <v>1.038500116391746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037969981377235</v>
+        <v>1.030594653755203</v>
       </c>
       <c r="J19">
-        <v>1.007971143347</v>
+        <v>1.029836023044831</v>
       </c>
       <c r="K19">
-        <v>1.018797529005166</v>
+        <v>1.03526877320774</v>
       </c>
       <c r="L19">
-        <v>1.004252034286781</v>
+        <v>1.027665887081754</v>
       </c>
       <c r="M19">
-        <v>1.016365948151795</v>
+        <v>1.041801209026574</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9785779199929945</v>
+        <v>1.023345261941102</v>
       </c>
       <c r="D20">
-        <v>1.003896390446038</v>
+        <v>1.031695403306565</v>
       </c>
       <c r="E20">
-        <v>0.9889886844111243</v>
+        <v>1.024034041318989</v>
       </c>
       <c r="F20">
-        <v>1.001139300661726</v>
+        <v>1.038182869970186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037599809281024</v>
+        <v>1.030545961026537</v>
       </c>
       <c r="J20">
-        <v>1.006960355681936</v>
+        <v>1.02962780428483</v>
       </c>
       <c r="K20">
-        <v>1.017871070795371</v>
+        <v>1.035084051022424</v>
       </c>
       <c r="L20">
-        <v>1.003227957925644</v>
+        <v>1.027449923568114</v>
       </c>
       <c r="M20">
-        <v>1.015162146380222</v>
+        <v>1.041548802287706</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9729373846293078</v>
+        <v>1.022264576508261</v>
       </c>
       <c r="D21">
-        <v>0.9998144073369941</v>
+        <v>1.030883694395592</v>
       </c>
       <c r="E21">
-        <v>0.984558743699239</v>
+        <v>1.02311937230395</v>
       </c>
       <c r="F21">
-        <v>0.9961221879634571</v>
+        <v>1.037152585731974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036360287320735</v>
+        <v>1.030385894141298</v>
       </c>
       <c r="J21">
-        <v>1.003611836948496</v>
+        <v>1.028950831442864</v>
       </c>
       <c r="K21">
-        <v>1.014799296681716</v>
+        <v>1.034482978023419</v>
       </c>
       <c r="L21">
-        <v>0.9998386818852008</v>
+        <v>1.02674811595503</v>
       </c>
       <c r="M21">
-        <v>1.01117740099891</v>
+        <v>1.040728439664846</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9693075574059786</v>
+        <v>1.021585711882599</v>
       </c>
       <c r="D22">
-        <v>0.9971929945303646</v>
+        <v>1.030373668667639</v>
       </c>
       <c r="E22">
-        <v>0.9817171753809538</v>
+        <v>1.022545225884821</v>
       </c>
       <c r="F22">
-        <v>0.992901762478544</v>
+        <v>1.036505666866172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035552486488544</v>
+        <v>1.030283905772787</v>
       </c>
       <c r="J22">
-        <v>1.001456584839234</v>
+        <v>1.028525171040694</v>
       </c>
       <c r="K22">
-        <v>1.012820264596866</v>
+        <v>1.034104663907472</v>
       </c>
       <c r="L22">
-        <v>0.9976597325102982</v>
+        <v>1.026307105147278</v>
       </c>
       <c r="M22">
-        <v>1.008615160633705</v>
+        <v>1.040212832490367</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9712399716243807</v>
+        <v>1.021945533204537</v>
       </c>
       <c r="D23">
-        <v>0.998588013111866</v>
+        <v>1.030644011395868</v>
       </c>
       <c r="E23">
-        <v>0.9832290503897573</v>
+        <v>1.022849501991879</v>
       </c>
       <c r="F23">
-        <v>0.9946154219358352</v>
+        <v>1.036848528635186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035983470404763</v>
+        <v>1.030338099332293</v>
       </c>
       <c r="J23">
-        <v>1.002603996732113</v>
+        <v>1.028750823313415</v>
       </c>
       <c r="K23">
-        <v>1.013874032333346</v>
+        <v>1.034305252529201</v>
       </c>
       <c r="L23">
-        <v>0.9988195203164885</v>
+        <v>1.026540869892108</v>
       </c>
       <c r="M23">
-        <v>1.009979004038594</v>
+        <v>1.040486147434354</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9786711287242403</v>
+        <v>1.023363389970664</v>
       </c>
       <c r="D24">
-        <v>1.003963927892394</v>
+        <v>1.031709017166144</v>
       </c>
       <c r="E24">
-        <v>0.9890620356732273</v>
+        <v>1.024049391739925</v>
       </c>
       <c r="F24">
-        <v>1.001222337858382</v>
+        <v>1.038200157324313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037620119492134</v>
+        <v>1.030548621679468</v>
       </c>
       <c r="J24">
-        <v>1.007015678695541</v>
+        <v>1.029639153402105</v>
       </c>
       <c r="K24">
-        <v>1.017921788280026</v>
+        <v>1.035094121305599</v>
       </c>
       <c r="L24">
-        <v>1.003283996148261</v>
+        <v>1.027461693516766</v>
       </c>
       <c r="M24">
-        <v>1.015228021823694</v>
+        <v>1.041562558860711</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9869568626863507</v>
+        <v>1.025011339488399</v>
       </c>
       <c r="D25">
-        <v>1.009977857063313</v>
+        <v>1.032946276347523</v>
       </c>
       <c r="E25">
-        <v>0.9956019612205085</v>
+        <v>1.025445854320967</v>
       </c>
       <c r="F25">
-        <v>1.008620846668069</v>
+        <v>1.039772351116418</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039400660884047</v>
+        <v>1.030787033984337</v>
       </c>
       <c r="J25">
-        <v>1.011931297128487</v>
+        <v>1.030669888353762</v>
       </c>
       <c r="K25">
-        <v>1.022423229393361</v>
+        <v>1.036007801163984</v>
       </c>
       <c r="L25">
-        <v>1.008268936912412</v>
+        <v>1.028531283282608</v>
       </c>
       <c r="M25">
-        <v>1.021086793069226</v>
+        <v>1.042812448537928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026327809050455</v>
+        <v>0.993318550031558</v>
       </c>
       <c r="D2">
-        <v>1.033934170463273</v>
+        <v>1.01460808278591</v>
       </c>
       <c r="E2">
-        <v>1.026562891491227</v>
+        <v>1.000649767249437</v>
       </c>
       <c r="F2">
-        <v>1.041029263270844</v>
+        <v>1.014324213285786</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030972423753723</v>
+        <v>1.04073032532101</v>
       </c>
       <c r="J2">
-        <v>1.031491865453045</v>
+        <v>1.015700955316582</v>
       </c>
       <c r="K2">
-        <v>1.036735092774435</v>
+        <v>1.025867587123763</v>
       </c>
       <c r="L2">
-        <v>1.02938517384718</v>
+        <v>1.012100057198462</v>
       </c>
       <c r="M2">
-        <v>1.043809936069994</v>
+        <v>1.02558753187199</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027284868655318</v>
+        <v>0.9978058593112608</v>
       </c>
       <c r="D3">
-        <v>1.034652058386466</v>
+        <v>1.017880097440372</v>
       </c>
       <c r="E3">
-        <v>1.027375804996841</v>
+        <v>1.004224574086679</v>
       </c>
       <c r="F3">
-        <v>1.041943570300468</v>
+        <v>1.01835924305234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031104258443841</v>
+        <v>1.041645652255655</v>
       </c>
       <c r="J3">
-        <v>1.032088599008431</v>
+        <v>1.018356518057173</v>
       </c>
       <c r="K3">
-        <v>1.037262307209987</v>
+        <v>1.028289198556893</v>
       </c>
       <c r="L3">
-        <v>1.030005613419861</v>
+        <v>1.014803684575204</v>
       </c>
       <c r="M3">
-        <v>1.044534514629731</v>
+        <v>1.028762481836191</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02790469430447</v>
+        <v>1.000651908641663</v>
       </c>
       <c r="D4">
-        <v>1.035116844112886</v>
+        <v>1.019957708534687</v>
       </c>
       <c r="E4">
-        <v>1.027902660592929</v>
+        <v>1.006498144478464</v>
       </c>
       <c r="F4">
-        <v>1.042535956090852</v>
+        <v>1.020923672418742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031188277057087</v>
+        <v>1.042215449173462</v>
       </c>
       <c r="J4">
-        <v>1.032474676121379</v>
+        <v>1.020038953217502</v>
       </c>
       <c r="K4">
-        <v>1.037603044275085</v>
+        <v>1.029821084011673</v>
       </c>
       <c r="L4">
-        <v>1.030407276591723</v>
+        <v>1.016518770211742</v>
       </c>
       <c r="M4">
-        <v>1.045003503623353</v>
+        <v>1.030775959258984</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028165398288454</v>
+        <v>1.001835096979144</v>
       </c>
       <c r="D5">
-        <v>1.035312301825979</v>
+        <v>1.020821937925186</v>
       </c>
       <c r="E5">
-        <v>1.028124351883175</v>
+        <v>1.007444794086867</v>
       </c>
       <c r="F5">
-        <v>1.042785177462964</v>
+        <v>1.021990989345906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031223289755673</v>
+        <v>1.042449709340826</v>
       </c>
       <c r="J5">
-        <v>1.032636970101201</v>
+        <v>1.02073791381736</v>
       </c>
       <c r="K5">
-        <v>1.037746191859674</v>
+        <v>1.030456923862883</v>
       </c>
       <c r="L5">
-        <v>1.030576181941058</v>
+        <v>1.017231822390594</v>
       </c>
       <c r="M5">
-        <v>1.045200698402348</v>
+        <v>1.031612920806986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028209179187396</v>
+        <v>1.002032993772526</v>
       </c>
       <c r="D6">
-        <v>1.035345123617064</v>
+        <v>1.02096651441447</v>
       </c>
       <c r="E6">
-        <v>1.028161586584383</v>
+        <v>1.007603212456427</v>
       </c>
       <c r="F6">
-        <v>1.04282703348028</v>
+        <v>1.022169575320224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031229150421788</v>
+        <v>1.042488735687495</v>
       </c>
       <c r="J6">
-        <v>1.032664219192287</v>
+        <v>1.020854790855227</v>
       </c>
       <c r="K6">
-        <v>1.03777022117406</v>
+        <v>1.030563211823259</v>
       </c>
       <c r="L6">
-        <v>1.030604544567486</v>
+        <v>1.017351086733473</v>
       </c>
       <c r="M6">
-        <v>1.045233810101291</v>
+        <v>1.031752901279061</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027908177337089</v>
+        <v>1.000667770061354</v>
       </c>
       <c r="D7">
-        <v>1.035119455587451</v>
+        <v>1.019969292188119</v>
       </c>
       <c r="E7">
-        <v>1.027905622053969</v>
+        <v>1.006510829241819</v>
       </c>
       <c r="F7">
-        <v>1.042539285484224</v>
+        <v>1.02093797580462</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031188746112258</v>
+        <v>1.04221859999705</v>
       </c>
       <c r="J7">
-        <v>1.032476844753196</v>
+        <v>1.020048325182267</v>
       </c>
       <c r="K7">
-        <v>1.037604957407659</v>
+        <v>1.029829611921736</v>
       </c>
       <c r="L7">
-        <v>1.030409533333274</v>
+        <v>1.016528329040565</v>
       </c>
       <c r="M7">
-        <v>1.045006138426275</v>
+        <v>1.030787179746128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026651138580373</v>
+        <v>0.9948472704878754</v>
       </c>
       <c r="D8">
-        <v>1.034176728455599</v>
+        <v>1.015722249337544</v>
       </c>
       <c r="E8">
-        <v>1.026837443372791</v>
+        <v>1.001866276303836</v>
       </c>
       <c r="F8">
-        <v>1.041338097704046</v>
+        <v>1.015697724286922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031017244102342</v>
+        <v>1.041044380676539</v>
       </c>
       <c r="J8">
-        <v>1.031693543971738</v>
+        <v>1.016606005690125</v>
       </c>
       <c r="K8">
-        <v>1.03691335075156</v>
+        <v>1.026693382317179</v>
       </c>
       <c r="L8">
-        <v>1.029594812809339</v>
+        <v>1.01302102689813</v>
       </c>
       <c r="M8">
-        <v>1.044054781396932</v>
+        <v>1.026669176726211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02444028580838</v>
+        <v>0.9841271001331976</v>
       </c>
       <c r="D9">
-        <v>1.032517611180028</v>
+        <v>1.007921747764471</v>
       </c>
       <c r="E9">
-        <v>1.024961718060623</v>
+        <v>0.9933640880690828</v>
       </c>
       <c r="F9">
-        <v>1.039227398532732</v>
+        <v>1.006090313386321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030705201477232</v>
+        <v>1.038798342541081</v>
       </c>
       <c r="J9">
-        <v>1.03031293423995</v>
+        <v>1.010253097369669</v>
       </c>
       <c r="K9">
-        <v>1.035691590962966</v>
+        <v>1.02088759443556</v>
       </c>
       <c r="L9">
-        <v>1.028160729648756</v>
+        <v>1.006565753714735</v>
       </c>
       <c r="M9">
-        <v>1.042379483940625</v>
+        <v>1.019085346313137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022969271401684</v>
+        <v>0.9766343103045185</v>
       </c>
       <c r="D10">
-        <v>1.031413023755124</v>
+        <v>1.00248869362662</v>
       </c>
       <c r="E10">
-        <v>1.023715714828007</v>
+        <v>0.9874602422951269</v>
       </c>
       <c r="F10">
-        <v>1.037824351427936</v>
+        <v>0.9994087561464027</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030490594060963</v>
+        <v>1.037174981890822</v>
       </c>
       <c r="J10">
-        <v>1.02939236299889</v>
+        <v>1.005806656080875</v>
       </c>
       <c r="K10">
-        <v>1.034875091508912</v>
+        <v>1.016813158856744</v>
       </c>
       <c r="L10">
-        <v>1.027205785615194</v>
+        <v>1.002059658128932</v>
       </c>
       <c r="M10">
-        <v>1.041263444447964</v>
+        <v>1.013788693895438</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022333002344295</v>
+        <v>0.9732994938378693</v>
       </c>
       <c r="D11">
-        <v>1.030935096906643</v>
+        <v>1.000076156296971</v>
       </c>
       <c r="E11">
-        <v>1.023177261423274</v>
+        <v>0.9848426108473994</v>
       </c>
       <c r="F11">
-        <v>1.037217803750861</v>
+        <v>0.9964438085049363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030396113085392</v>
+        <v>1.036440454794059</v>
       </c>
       <c r="J11">
-        <v>1.028993718768648</v>
+        <v>1.003826832927645</v>
       </c>
       <c r="K11">
-        <v>1.034521079020396</v>
+        <v>1.014996636564651</v>
       </c>
       <c r="L11">
-        <v>1.026792561138263</v>
+        <v>1.000056148401552</v>
       </c>
       <c r="M11">
-        <v>1.040780398568353</v>
+        <v>1.011433102450286</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022096768213192</v>
+        <v>0.9720464520327013</v>
       </c>
       <c r="D12">
-        <v>1.0307576301433</v>
+        <v>0.9991705832620852</v>
       </c>
       <c r="E12">
-        <v>1.022977418603912</v>
+        <v>0.9838606226223835</v>
       </c>
       <c r="F12">
-        <v>1.036992653754951</v>
+        <v>0.9953311460938568</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030360785616719</v>
+        <v>1.036162713802639</v>
       </c>
       <c r="J12">
-        <v>1.028845640889971</v>
+        <v>1.003082850710506</v>
       </c>
       <c r="K12">
-        <v>1.03438951454234</v>
+        <v>1.014313690857409</v>
       </c>
       <c r="L12">
-        <v>1.026639113164868</v>
+        <v>0.9993037002570671</v>
       </c>
       <c r="M12">
-        <v>1.040601006099229</v>
+        <v>1.010548343962762</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022147436492011</v>
+        <v>0.9723158956154359</v>
       </c>
       <c r="D13">
-        <v>1.030795694784428</v>
+        <v>0.9993652666774138</v>
       </c>
       <c r="E13">
-        <v>1.023020278180429</v>
+        <v>0.9840717087577961</v>
       </c>
       <c r="F13">
-        <v>1.037040942435956</v>
+        <v>0.9955703389732518</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03036837401521</v>
+        <v>1.036222514788417</v>
       </c>
       <c r="J13">
-        <v>1.028877404247788</v>
+        <v>1.003242832791646</v>
       </c>
       <c r="K13">
-        <v>1.034417738651237</v>
+        <v>1.014460562463761</v>
       </c>
       <c r="L13">
-        <v>1.026672026358896</v>
+        <v>0.9994654830960046</v>
       </c>
       <c r="M13">
-        <v>1.040639484912228</v>
+        <v>1.010738578202342</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022313473019909</v>
+        <v>0.9731962141924139</v>
       </c>
       <c r="D14">
-        <v>1.030920426286735</v>
+        <v>1.000001496735042</v>
       </c>
       <c r="E14">
-        <v>1.023160739025567</v>
+        <v>0.9847616398474597</v>
       </c>
       <c r="F14">
-        <v>1.037199189737808</v>
+        <v>0.9963520703847502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030393197656459</v>
+        <v>1.036417597642775</v>
       </c>
       <c r="J14">
-        <v>1.028981478674111</v>
+        <v>1.003765512734049</v>
       </c>
       <c r="K14">
-        <v>1.034510205250393</v>
+        <v>1.014940353653776</v>
       </c>
       <c r="L14">
-        <v>1.026779876218174</v>
+        <v>0.9999941215701883</v>
       </c>
       <c r="M14">
-        <v>1.040765569265248</v>
+        <v>1.011360170433749</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022415787481829</v>
+        <v>0.9737366832906833</v>
       </c>
       <c r="D15">
-        <v>1.030997285018189</v>
+        <v>1.000392233411771</v>
       </c>
       <c r="E15">
-        <v>1.023247303194682</v>
+        <v>0.9851854309870797</v>
       </c>
       <c r="F15">
-        <v>1.037296710886118</v>
+        <v>0.9968321995982226</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030408461458443</v>
+        <v>1.036537139795495</v>
       </c>
       <c r="J15">
-        <v>1.029045601906751</v>
+        <v>1.004086402651682</v>
       </c>
       <c r="K15">
-        <v>1.034567167931664</v>
+        <v>1.015234870082571</v>
       </c>
       <c r="L15">
-        <v>1.026846331672059</v>
+        <v>1.000318727092674</v>
       </c>
       <c r="M15">
-        <v>1.040843258310763</v>
+        <v>1.011741842899045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023011513093559</v>
+        <v>0.9768536628119537</v>
       </c>
       <c r="D16">
-        <v>1.031444750037035</v>
+        <v>1.002647505264534</v>
       </c>
       <c r="E16">
-        <v>1.023751472955808</v>
+        <v>0.9876326352379001</v>
       </c>
       <c r="F16">
-        <v>1.037864626790366</v>
+        <v>0.9996039701946131</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030496831744453</v>
+        <v>1.037223051057039</v>
       </c>
       <c r="J16">
-        <v>1.029418819136944</v>
+        <v>1.005936868790626</v>
       </c>
       <c r="K16">
-        <v>1.034898576490777</v>
+        <v>1.016932584429527</v>
       </c>
       <c r="L16">
-        <v>1.027233215794957</v>
+        <v>1.002191488861159</v>
       </c>
       <c r="M16">
-        <v>1.041295507070554</v>
+        <v>1.013943679982646</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023385381352319</v>
+        <v>0.9787841401299462</v>
       </c>
       <c r="D17">
-        <v>1.031725532240765</v>
+        <v>1.004045817572849</v>
       </c>
       <c r="E17">
-        <v>1.024068013886138</v>
+        <v>0.9891509772480406</v>
       </c>
       <c r="F17">
-        <v>1.038221129082794</v>
+        <v>1.001323022422463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030551848264283</v>
+        <v>1.037644736850093</v>
       </c>
       <c r="J17">
-        <v>1.029652920879071</v>
+        <v>1.007082754783362</v>
       </c>
       <c r="K17">
-        <v>1.035106337156902</v>
+        <v>1.017983278882979</v>
       </c>
       <c r="L17">
-        <v>1.027475971700072</v>
+        <v>1.003351941256849</v>
       </c>
       <c r="M17">
-        <v>1.041579246953994</v>
+        <v>1.015307893961646</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023603518887262</v>
+        <v>0.9799014878975095</v>
       </c>
       <c r="D18">
-        <v>1.031889343043635</v>
+        <v>1.004855672367721</v>
       </c>
       <c r="E18">
-        <v>1.024252750410497</v>
+        <v>0.9900307272816453</v>
       </c>
       <c r="F18">
-        <v>1.038429165392149</v>
+        <v>1.002318829831061</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03058378844283</v>
+        <v>1.037887661148076</v>
       </c>
       <c r="J18">
-        <v>1.029789465427152</v>
+        <v>1.00774590226022</v>
       </c>
       <c r="K18">
-        <v>1.035227475710364</v>
+        <v>1.018591113673917</v>
       </c>
       <c r="L18">
-        <v>1.02761759334359</v>
+        <v>1.004023791209746</v>
       </c>
       <c r="M18">
-        <v>1.041744767476727</v>
+        <v>1.0160976569362</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023677909403233</v>
+        <v>0.9802810268335611</v>
       </c>
       <c r="D19">
-        <v>1.031945204236763</v>
+        <v>1.00513084821128</v>
       </c>
       <c r="E19">
-        <v>1.024315758314632</v>
+        <v>0.9903297173164668</v>
       </c>
       <c r="F19">
-        <v>1.038500116391746</v>
+        <v>1.002657222829163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030594653755203</v>
+        <v>1.037969981377235</v>
       </c>
       <c r="J19">
-        <v>1.029836023044831</v>
+        <v>1.007971143346999</v>
       </c>
       <c r="K19">
-        <v>1.03526877320774</v>
+        <v>1.018797529005165</v>
       </c>
       <c r="L19">
-        <v>1.027665887081754</v>
+        <v>1.004252034286781</v>
       </c>
       <c r="M19">
-        <v>1.041801209026574</v>
+        <v>1.016365948151795</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023345261941102</v>
+        <v>0.9785779199929943</v>
       </c>
       <c r="D20">
-        <v>1.031695403306565</v>
+        <v>1.003896390446038</v>
       </c>
       <c r="E20">
-        <v>1.024034041318989</v>
+        <v>0.9889886844111239</v>
       </c>
       <c r="F20">
-        <v>1.038182869970186</v>
+        <v>1.001139300661725</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030545961026537</v>
+        <v>1.037599809281024</v>
       </c>
       <c r="J20">
-        <v>1.02962780428483</v>
+        <v>1.006960355681935</v>
       </c>
       <c r="K20">
-        <v>1.035084051022424</v>
+        <v>1.01787107079537</v>
       </c>
       <c r="L20">
-        <v>1.027449923568114</v>
+        <v>1.003227957925643</v>
       </c>
       <c r="M20">
-        <v>1.041548802287706</v>
+        <v>1.015162146380221</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022264576508261</v>
+        <v>0.972937384629307</v>
       </c>
       <c r="D21">
-        <v>1.030883694395592</v>
+        <v>0.9998144073369936</v>
       </c>
       <c r="E21">
-        <v>1.02311937230395</v>
+        <v>0.9845587436992382</v>
       </c>
       <c r="F21">
-        <v>1.037152585731974</v>
+        <v>0.9961221879634566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030385894141298</v>
+        <v>1.036360287320735</v>
       </c>
       <c r="J21">
-        <v>1.028950831442864</v>
+        <v>1.003611836948496</v>
       </c>
       <c r="K21">
-        <v>1.034482978023419</v>
+        <v>1.014799296681716</v>
       </c>
       <c r="L21">
-        <v>1.02674811595503</v>
+        <v>0.9998386818851998</v>
       </c>
       <c r="M21">
-        <v>1.040728439664846</v>
+        <v>1.011177400998909</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021585711882599</v>
+        <v>0.9693075574059781</v>
       </c>
       <c r="D22">
-        <v>1.030373668667639</v>
+        <v>0.997192994530364</v>
       </c>
       <c r="E22">
-        <v>1.022545225884821</v>
+        <v>0.9817171753809532</v>
       </c>
       <c r="F22">
-        <v>1.036505666866172</v>
+        <v>0.9929017624785434</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030283905772787</v>
+        <v>1.035552486488544</v>
       </c>
       <c r="J22">
-        <v>1.028525171040694</v>
+        <v>1.001456584839233</v>
       </c>
       <c r="K22">
-        <v>1.034104663907472</v>
+        <v>1.012820264596866</v>
       </c>
       <c r="L22">
-        <v>1.026307105147278</v>
+        <v>0.9976597325102976</v>
       </c>
       <c r="M22">
-        <v>1.040212832490367</v>
+        <v>1.008615160633705</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021945533204537</v>
+        <v>0.9712399716243802</v>
       </c>
       <c r="D23">
-        <v>1.030644011395868</v>
+        <v>0.9985880131118657</v>
       </c>
       <c r="E23">
-        <v>1.022849501991879</v>
+        <v>0.9832290503897568</v>
       </c>
       <c r="F23">
-        <v>1.036848528635186</v>
+        <v>0.9946154219358351</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030338099332293</v>
+        <v>1.035983470404763</v>
       </c>
       <c r="J23">
-        <v>1.028750823313415</v>
+        <v>1.002603996732113</v>
       </c>
       <c r="K23">
-        <v>1.034305252529201</v>
+        <v>1.013874032333346</v>
       </c>
       <c r="L23">
-        <v>1.026540869892108</v>
+        <v>0.9988195203164879</v>
       </c>
       <c r="M23">
-        <v>1.040486147434354</v>
+        <v>1.009979004038593</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023363389970664</v>
+        <v>0.9786711287242394</v>
       </c>
       <c r="D24">
-        <v>1.031709017166144</v>
+        <v>1.003963927892394</v>
       </c>
       <c r="E24">
-        <v>1.024049391739925</v>
+        <v>0.9890620356732266</v>
       </c>
       <c r="F24">
-        <v>1.038200157324313</v>
+        <v>1.001222337858381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030548621679468</v>
+        <v>1.037620119492134</v>
       </c>
       <c r="J24">
-        <v>1.029639153402105</v>
+        <v>1.00701567869554</v>
       </c>
       <c r="K24">
-        <v>1.035094121305599</v>
+        <v>1.017921788280025</v>
       </c>
       <c r="L24">
-        <v>1.027461693516766</v>
+        <v>1.00328399614826</v>
       </c>
       <c r="M24">
-        <v>1.041562558860711</v>
+        <v>1.015228021823693</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025011339488399</v>
+        <v>0.9869568626863509</v>
       </c>
       <c r="D25">
-        <v>1.032946276347523</v>
+        <v>1.009977857063313</v>
       </c>
       <c r="E25">
-        <v>1.025445854320967</v>
+        <v>0.9956019612205084</v>
       </c>
       <c r="F25">
-        <v>1.039772351116418</v>
+        <v>1.008620846668069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030787033984337</v>
+        <v>1.039400660884047</v>
       </c>
       <c r="J25">
-        <v>1.030669888353762</v>
+        <v>1.011931297128487</v>
       </c>
       <c r="K25">
-        <v>1.036007801163984</v>
+        <v>1.022423229393361</v>
       </c>
       <c r="L25">
-        <v>1.028531283282608</v>
+        <v>1.008268936912412</v>
       </c>
       <c r="M25">
-        <v>1.042812448537928</v>
+        <v>1.021086793069226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993318550031558</v>
+        <v>1.017337661450758</v>
       </c>
       <c r="D2">
-        <v>1.01460808278591</v>
+        <v>1.033199261002925</v>
       </c>
       <c r="E2">
-        <v>1.000649767249437</v>
+        <v>1.029254558215877</v>
       </c>
       <c r="F2">
-        <v>1.014324213285786</v>
+        <v>1.035272380465261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04073032532101</v>
+        <v>1.053454660140139</v>
       </c>
       <c r="J2">
-        <v>1.015700955316582</v>
+        <v>1.039011889502043</v>
       </c>
       <c r="K2">
-        <v>1.025867587123763</v>
+        <v>1.044214670163866</v>
       </c>
       <c r="L2">
-        <v>1.012100057198462</v>
+        <v>1.04032083732331</v>
       </c>
       <c r="M2">
-        <v>1.02558753187199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.046261249359947</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045185051323988</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042333882120607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9978058593112608</v>
+        <v>1.02086546061893</v>
       </c>
       <c r="D3">
-        <v>1.017880097440372</v>
+        <v>1.035539789538721</v>
       </c>
       <c r="E3">
-        <v>1.004224574086679</v>
+        <v>1.03204133816744</v>
       </c>
       <c r="F3">
-        <v>1.01835924305234</v>
+        <v>1.03805294487567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041645652255655</v>
+        <v>1.054396782828943</v>
       </c>
       <c r="J3">
-        <v>1.018356518057173</v>
+        <v>1.040803033949315</v>
       </c>
       <c r="K3">
-        <v>1.028289198556893</v>
+        <v>1.045737263024257</v>
       </c>
       <c r="L3">
-        <v>1.014803684575204</v>
+        <v>1.042280023203736</v>
       </c>
       <c r="M3">
-        <v>1.028762481836191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.048221025591791</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046736071178857</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043407824913963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,75 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000651908641663</v>
+        <v>1.02310933082224</v>
       </c>
       <c r="D4">
-        <v>1.019957708534687</v>
+        <v>1.037031631730831</v>
       </c>
       <c r="E4">
-        <v>1.006498144478464</v>
+        <v>1.033819708340936</v>
       </c>
       <c r="F4">
-        <v>1.020923672418742</v>
+        <v>1.03982949331699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042215449173462</v>
+        <v>1.054986513886903</v>
       </c>
       <c r="J4">
-        <v>1.020038953217502</v>
+        <v>1.041939817476633</v>
       </c>
       <c r="K4">
-        <v>1.029821084011673</v>
+        <v>1.046702753094563</v>
       </c>
       <c r="L4">
-        <v>1.016518770211742</v>
+        <v>1.043526399683298</v>
       </c>
       <c r="M4">
-        <v>1.030775959258984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.049469850126288</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047724422950356</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044091392623321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.001835096979144</v>
+        <v>1.024046500943837</v>
       </c>
       <c r="D5">
-        <v>1.020821937925186</v>
+        <v>1.037657515424963</v>
       </c>
       <c r="E5">
-        <v>1.007444794086867</v>
+        <v>1.034564028925594</v>
       </c>
       <c r="F5">
-        <v>1.021990989345906</v>
+        <v>1.040573040980586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042449709340826</v>
+        <v>1.055231973340179</v>
       </c>
       <c r="J5">
-        <v>1.02073791381736</v>
+        <v>1.04241534598527</v>
       </c>
       <c r="K5">
-        <v>1.030456923862883</v>
+        <v>1.047107982885279</v>
       </c>
       <c r="L5">
-        <v>1.017231822390594</v>
+        <v>1.044047848703534</v>
       </c>
       <c r="M5">
-        <v>1.031612920806986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.049992297094366</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048137900490785</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044385049330534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002032993772526</v>
+        <v>1.024206854496356</v>
       </c>
       <c r="D6">
-        <v>1.02096651441447</v>
+        <v>1.037767174620969</v>
       </c>
       <c r="E6">
-        <v>1.007603212456427</v>
+        <v>1.034691704775112</v>
       </c>
       <c r="F6">
-        <v>1.022169575320224</v>
+        <v>1.040699976754172</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042488735687495</v>
+        <v>1.055275624810139</v>
       </c>
       <c r="J6">
-        <v>1.020854790855227</v>
+        <v>1.042498328007862</v>
       </c>
       <c r="K6">
-        <v>1.030563211823259</v>
+        <v>1.047180579727389</v>
       </c>
       <c r="L6">
-        <v>1.017351086733473</v>
+        <v>1.044138117082127</v>
       </c>
       <c r="M6">
-        <v>1.031752901279061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.050082128251985</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048208995082632</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04444507373855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000667770061354</v>
+        <v>1.023131341275428</v>
       </c>
       <c r="D7">
-        <v>1.019969292188119</v>
+        <v>1.037053076645479</v>
       </c>
       <c r="E7">
-        <v>1.006510829241819</v>
+        <v>1.033837837096938</v>
       </c>
       <c r="F7">
-        <v>1.02093797580462</v>
+        <v>1.039845886765898</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04221859999705</v>
+        <v>1.05499707078776</v>
       </c>
       <c r="J7">
-        <v>1.020048325182267</v>
+        <v>1.04195541722917</v>
       </c>
       <c r="K7">
-        <v>1.029829611921736</v>
+        <v>1.046721102979139</v>
       </c>
       <c r="L7">
-        <v>1.016528329040565</v>
+        <v>1.043541456605918</v>
       </c>
       <c r="M7">
-        <v>1.030787179746128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.049483215680691</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047735000785814</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04412436215333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9948472704878754</v>
+        <v>1.01854982201844</v>
       </c>
       <c r="D8">
-        <v>1.015722249337544</v>
+        <v>1.034011087408266</v>
       </c>
       <c r="E8">
-        <v>1.001866276303836</v>
+        <v>1.030211762674762</v>
       </c>
       <c r="F8">
-        <v>1.015697724286922</v>
+        <v>1.036224871403957</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041044380676539</v>
+        <v>1.053786142349014</v>
       </c>
       <c r="J8">
-        <v>1.016606005690125</v>
+        <v>1.039633283767472</v>
       </c>
       <c r="K8">
-        <v>1.026693382317179</v>
+        <v>1.044749251936861</v>
       </c>
       <c r="L8">
-        <v>1.01302102689813</v>
+        <v>1.04099747499458</v>
       </c>
       <c r="M8">
-        <v>1.026669176726211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.046935531079061</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045718696462076</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042734656948402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9841271001331976</v>
+        <v>1.010152118926437</v>
       </c>
       <c r="D9">
-        <v>1.007921747764471</v>
+        <v>1.028451011632108</v>
       </c>
       <c r="E9">
-        <v>0.9933640880690828</v>
+        <v>1.023611682773031</v>
       </c>
       <c r="F9">
-        <v>1.006090313386321</v>
+        <v>1.029653685084312</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038798342541081</v>
+        <v>1.051485376965243</v>
       </c>
       <c r="J9">
-        <v>1.010253097369669</v>
+        <v>1.035351403681361</v>
       </c>
       <c r="K9">
-        <v>1.02088759443556</v>
+        <v>1.041098760022144</v>
       </c>
       <c r="L9">
-        <v>1.006565753714735</v>
+        <v>1.036332949920401</v>
       </c>
       <c r="M9">
-        <v>1.019085346313137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.042283299053925</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042036783875162</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040150383431274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9766343103045185</v>
+        <v>1.004397287599963</v>
       </c>
       <c r="D10">
-        <v>1.00248869362662</v>
+        <v>1.024668946265344</v>
       </c>
       <c r="E10">
-        <v>0.9874602422951269</v>
+        <v>1.01916363414958</v>
       </c>
       <c r="F10">
-        <v>0.9994087561464027</v>
+        <v>1.025286639926124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037174981890822</v>
+        <v>1.049879471642125</v>
       </c>
       <c r="J10">
-        <v>1.005806656080875</v>
+        <v>1.032437520533104</v>
       </c>
       <c r="K10">
-        <v>1.016813158856744</v>
+        <v>1.038606636176971</v>
       </c>
       <c r="L10">
-        <v>1.002059658128932</v>
+        <v>1.033195294166952</v>
       </c>
       <c r="M10">
-        <v>1.013788693895438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.039213867686915</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039658900630789</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038405050735127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9732994938378693</v>
+        <v>1.002394519749406</v>
       </c>
       <c r="D11">
-        <v>1.000076156296971</v>
+        <v>1.023414633905824</v>
       </c>
       <c r="E11">
-        <v>0.9848426108473994</v>
+        <v>1.017953497688395</v>
       </c>
       <c r="F11">
-        <v>0.9964438085049363</v>
+        <v>1.024505855923309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036440454794059</v>
+        <v>1.049448754412348</v>
       </c>
       <c r="J11">
-        <v>1.003826832927645</v>
+        <v>1.031668022071384</v>
       </c>
       <c r="K11">
-        <v>1.014996636564651</v>
+        <v>1.037908092870963</v>
       </c>
       <c r="L11">
-        <v>1.000056148401552</v>
+        <v>1.03254459776726</v>
       </c>
       <c r="M11">
-        <v>1.011433102450286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.038979966499502</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039909283162975</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037943867000198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9720464520327013</v>
+        <v>1.001840151836792</v>
       </c>
       <c r="D12">
-        <v>0.9991705832620852</v>
+        <v>1.023088274911225</v>
       </c>
       <c r="E12">
-        <v>0.9838606226223835</v>
+        <v>1.017771228643312</v>
       </c>
       <c r="F12">
-        <v>0.9953311460938568</v>
+        <v>1.024624592766253</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036162713802639</v>
+        <v>1.049388043432071</v>
       </c>
       <c r="J12">
-        <v>1.003082850710506</v>
+        <v>1.031566836794338</v>
       </c>
       <c r="K12">
-        <v>1.014313690857409</v>
+        <v>1.037786116429111</v>
       </c>
       <c r="L12">
-        <v>0.9993037002570671</v>
+        <v>1.032565700053809</v>
       </c>
       <c r="M12">
-        <v>1.010548343962762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.039294756524607</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040484091105669</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037857626353538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9723158956154359</v>
+        <v>1.002375427065632</v>
       </c>
       <c r="D13">
-        <v>0.9993652666774138</v>
+        <v>1.023469152296149</v>
       </c>
       <c r="E13">
-        <v>0.9840717087577961</v>
+        <v>1.018379600276058</v>
       </c>
       <c r="F13">
-        <v>0.9955703389732518</v>
+        <v>1.025464208403507</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036222514788417</v>
+        <v>1.049621226460065</v>
       </c>
       <c r="J13">
-        <v>1.003242832791646</v>
+        <v>1.031987339043933</v>
       </c>
       <c r="K13">
-        <v>1.014460562463761</v>
+        <v>1.038117549311752</v>
       </c>
       <c r="L13">
-        <v>0.9994654830960046</v>
+        <v>1.033120067556571</v>
       </c>
       <c r="M13">
-        <v>1.010738578202342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.040076838549572</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04137864244977</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038089475899275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9731962141924139</v>
+        <v>1.003242643581048</v>
       </c>
       <c r="D14">
-        <v>1.000001496735042</v>
+        <v>1.024056636071979</v>
       </c>
       <c r="E14">
-        <v>0.9847616398474597</v>
+        <v>1.019160759254448</v>
       </c>
       <c r="F14">
-        <v>0.9963520703847502</v>
+        <v>1.026375265831868</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036417597642775</v>
+        <v>1.049917129036436</v>
       </c>
       <c r="J14">
-        <v>1.003765512734049</v>
+        <v>1.032516606446477</v>
       </c>
       <c r="K14">
-        <v>1.014940353653776</v>
+        <v>1.038555098718907</v>
       </c>
       <c r="L14">
-        <v>0.9999941215701883</v>
+        <v>1.033746664708911</v>
       </c>
       <c r="M14">
-        <v>1.011360170433749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.040832694035345</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042149147937067</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03840025403858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9737366832906833</v>
+        <v>1.003697079491932</v>
       </c>
       <c r="D15">
-        <v>1.000392233411771</v>
+        <v>1.024360477604382</v>
       </c>
       <c r="E15">
-        <v>0.9851854309870797</v>
+        <v>1.019533688593676</v>
       </c>
       <c r="F15">
-        <v>0.9968321995982226</v>
+        <v>1.026772294199898</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036537139795495</v>
+        <v>1.050057754393226</v>
       </c>
       <c r="J15">
-        <v>1.004086402651682</v>
+        <v>1.032766697105381</v>
       </c>
       <c r="K15">
-        <v>1.015234870082571</v>
+        <v>1.038767702496536</v>
       </c>
       <c r="L15">
-        <v>1.000318727092674</v>
+        <v>1.034026460692747</v>
       </c>
       <c r="M15">
-        <v>1.011741842899045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.041137163853778</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042427273122405</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038556416757126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768536628119537</v>
+        <v>1.006028492209707</v>
       </c>
       <c r="D16">
-        <v>1.002647505264534</v>
+        <v>1.02588798538526</v>
       </c>
       <c r="E16">
-        <v>0.9876326352379001</v>
+        <v>1.021302668538581</v>
       </c>
       <c r="F16">
-        <v>0.9996039701946131</v>
+        <v>1.02849194215748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037223051057039</v>
+        <v>1.050707749344477</v>
       </c>
       <c r="J16">
-        <v>1.005936868790626</v>
+        <v>1.033928924846841</v>
       </c>
       <c r="K16">
-        <v>1.016932584429527</v>
+        <v>1.039769690427932</v>
       </c>
       <c r="L16">
-        <v>1.002191488861159</v>
+        <v>1.035262081262963</v>
       </c>
       <c r="M16">
-        <v>1.013943679982646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.042329915338254</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043331377786069</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03926800542483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9787841401299462</v>
+        <v>1.007365384409172</v>
       </c>
       <c r="D17">
-        <v>1.004045817572849</v>
+        <v>1.026754778722608</v>
       </c>
       <c r="E17">
-        <v>0.9891509772480406</v>
+        <v>1.022252735121502</v>
       </c>
       <c r="F17">
-        <v>1.001323022422463</v>
+        <v>1.029330276306518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037644736850093</v>
+        <v>1.051049635099171</v>
       </c>
       <c r="J17">
-        <v>1.007082754783362</v>
+        <v>1.034543434818367</v>
       </c>
       <c r="K17">
-        <v>1.017983278882979</v>
+        <v>1.040309416674319</v>
       </c>
       <c r="L17">
-        <v>1.003351941256849</v>
+        <v>1.035881527568691</v>
       </c>
       <c r="M17">
-        <v>1.015307893961646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.04284286720151</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043608052718298</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039652185636255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9799014878975095</v>
+        <v>1.007954814614824</v>
       </c>
       <c r="D18">
-        <v>1.004855672367721</v>
+        <v>1.027114600276743</v>
       </c>
       <c r="E18">
-        <v>0.9900307272816453</v>
+        <v>1.022551641664503</v>
       </c>
       <c r="F18">
-        <v>1.002318829831061</v>
+        <v>1.029428512024463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037887661148076</v>
+        <v>1.051146662743208</v>
       </c>
       <c r="J18">
-        <v>1.00774590226022</v>
+        <v>1.03472063086583</v>
       </c>
       <c r="K18">
-        <v>1.018591113673917</v>
+        <v>1.040481157216735</v>
       </c>
       <c r="L18">
-        <v>1.004023791209746</v>
+        <v>1.035992136385491</v>
       </c>
       <c r="M18">
-        <v>1.0160976569362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.042757895741522</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043303719296092</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039762027485735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9802810268335611</v>
+        <v>1.007875223531166</v>
       </c>
       <c r="D19">
-        <v>1.00513084821128</v>
+        <v>1.027030038107518</v>
       </c>
       <c r="E19">
-        <v>0.9903297173164668</v>
+        <v>1.02226184266609</v>
       </c>
       <c r="F19">
-        <v>1.002657222829163</v>
+        <v>1.028850287496185</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037969981377235</v>
+        <v>1.051031699684433</v>
       </c>
       <c r="J19">
-        <v>1.007971143346999</v>
+        <v>1.03451107236305</v>
       </c>
       <c r="K19">
-        <v>1.018797529005165</v>
+        <v>1.040335825339101</v>
       </c>
       <c r="L19">
-        <v>1.004252034286781</v>
+        <v>1.03564451754883</v>
       </c>
       <c r="M19">
-        <v>1.016365948151795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.042126963941314</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042480093005629</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039665640176526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785779199929943</v>
+        <v>1.005912998840533</v>
       </c>
       <c r="D20">
-        <v>1.003896390446038</v>
+        <v>1.025680098191621</v>
       </c>
       <c r="E20">
-        <v>0.9889886844111239</v>
+        <v>1.020336840076602</v>
       </c>
       <c r="F20">
-        <v>1.001139300661725</v>
+        <v>1.026436236451534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037599809281024</v>
+        <v>1.050317626446921</v>
       </c>
       <c r="J20">
-        <v>1.006960355681935</v>
+        <v>1.033217871921239</v>
       </c>
       <c r="K20">
-        <v>1.01787107079537</v>
+        <v>1.039285939368618</v>
       </c>
       <c r="L20">
-        <v>1.003227957925643</v>
+        <v>1.034031274452631</v>
       </c>
       <c r="M20">
-        <v>1.015162146380221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.040029636394158</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040293960606159</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038927240512592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972937384629307</v>
+        <v>1.001491144150551</v>
       </c>
       <c r="D21">
-        <v>0.9998144073369936</v>
+        <v>1.022767833764568</v>
       </c>
       <c r="E21">
-        <v>0.9845587436992382</v>
+        <v>1.016867583015256</v>
       </c>
       <c r="F21">
-        <v>0.9961221879634566</v>
+        <v>1.022955324743072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036360287320735</v>
+        <v>1.04903937861459</v>
       </c>
       <c r="J21">
-        <v>1.003611836948496</v>
+        <v>1.030926653265368</v>
       </c>
       <c r="K21">
-        <v>1.014799296681716</v>
+        <v>1.037330330349118</v>
       </c>
       <c r="L21">
-        <v>0.9998386818851998</v>
+        <v>1.031536288534088</v>
       </c>
       <c r="M21">
-        <v>1.011177400998909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.037514472428422</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038262575494792</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037547776831549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9693075574059781</v>
+        <v>0.9986816014194368</v>
       </c>
       <c r="D22">
-        <v>0.997192994530364</v>
+        <v>1.020919203316714</v>
       </c>
       <c r="E22">
-        <v>0.9817171753809532</v>
+        <v>1.014690635781898</v>
       </c>
       <c r="F22">
-        <v>0.9929017624785434</v>
+        <v>1.020800563982724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035552486488544</v>
+        <v>1.048221843910937</v>
       </c>
       <c r="J22">
-        <v>1.001456584839233</v>
+        <v>1.029479769462893</v>
       </c>
       <c r="K22">
-        <v>1.012820264596866</v>
+        <v>1.036087333745224</v>
       </c>
       <c r="L22">
-        <v>0.9976597325102976</v>
+        <v>1.029976579814976</v>
       </c>
       <c r="M22">
-        <v>1.008615160633705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.035970920939174</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037040953130395</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036655473292627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9712399716243802</v>
+        <v>1.000167559992243</v>
       </c>
       <c r="D23">
-        <v>0.9985880131118657</v>
+        <v>1.02189069826236</v>
       </c>
       <c r="E23">
-        <v>0.9832290503897568</v>
+        <v>1.015840396741059</v>
       </c>
       <c r="F23">
-        <v>0.9946154219358351</v>
+        <v>1.021939905275356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035983470404763</v>
+        <v>1.048651268228479</v>
       </c>
       <c r="J23">
-        <v>1.002603996732113</v>
+        <v>1.03024138284767</v>
       </c>
       <c r="K23">
-        <v>1.013874032333346</v>
+        <v>1.036737553060622</v>
       </c>
       <c r="L23">
-        <v>0.9988195203164879</v>
+        <v>1.030798750343325</v>
       </c>
       <c r="M23">
-        <v>1.009979004038593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.036785860302131</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03768592581885</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037105601715071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9786711287242394</v>
+        <v>1.005919882873104</v>
       </c>
       <c r="D24">
-        <v>1.003963927892394</v>
+        <v>1.025670481684766</v>
       </c>
       <c r="E24">
-        <v>0.9890620356732266</v>
+        <v>1.020308758273068</v>
       </c>
       <c r="F24">
-        <v>1.001222337858381</v>
+        <v>1.026370466966632</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037620119492134</v>
+        <v>1.050300459878941</v>
       </c>
       <c r="J24">
-        <v>1.00701567869554</v>
+        <v>1.033191940838833</v>
       </c>
       <c r="K24">
-        <v>1.017921788280025</v>
+        <v>1.039261308676335</v>
       </c>
       <c r="L24">
-        <v>1.00328399614826</v>
+        <v>1.033988374981229</v>
       </c>
       <c r="M24">
-        <v>1.015228021823693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.03994979029709</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040189969719852</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038882532335652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869568626863509</v>
+        <v>1.012376392641964</v>
       </c>
       <c r="D25">
-        <v>1.009977857063313</v>
+        <v>1.029930640179928</v>
       </c>
       <c r="E25">
-        <v>0.9956019612205084</v>
+        <v>1.02535531715645</v>
       </c>
       <c r="F25">
-        <v>1.008620846668069</v>
+        <v>1.031385002664302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039400660884047</v>
+        <v>1.052110267304126</v>
       </c>
       <c r="J25">
-        <v>1.011931297128487</v>
+        <v>1.036494301847076</v>
       </c>
       <c r="K25">
-        <v>1.022423229393361</v>
+        <v>1.042081432978396</v>
       </c>
       <c r="L25">
-        <v>1.008268936912412</v>
+        <v>1.037572374210904</v>
       </c>
       <c r="M25">
-        <v>1.021086793069226</v>
+        <v>1.04351488791227</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043011501153966</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040873638527567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017337661450758</v>
+        <v>1.016237152619481</v>
       </c>
       <c r="D2">
-        <v>1.033199261002925</v>
+        <v>1.031531582999802</v>
       </c>
       <c r="E2">
-        <v>1.029254558215877</v>
+        <v>1.028379651569052</v>
       </c>
       <c r="F2">
-        <v>1.035272380465261</v>
+        <v>1.0345638065204</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053454660140139</v>
+        <v>1.052546601946988</v>
       </c>
       <c r="J2">
-        <v>1.039011889502043</v>
+        <v>1.037942826799541</v>
       </c>
       <c r="K2">
-        <v>1.044214670163866</v>
+        <v>1.042568438761115</v>
       </c>
       <c r="L2">
-        <v>1.04032083732331</v>
+        <v>1.039457279454127</v>
       </c>
       <c r="M2">
-        <v>1.046261249359947</v>
+        <v>1.045561731691541</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045185051323988</v>
+        <v>1.044631433349516</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042333882120607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041178597481137</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023351255100647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02086546061893</v>
+        <v>1.019664039031691</v>
       </c>
       <c r="D3">
-        <v>1.035539789538721</v>
+        <v>1.03371863441868</v>
       </c>
       <c r="E3">
-        <v>1.03204133816744</v>
+        <v>1.031082625990234</v>
       </c>
       <c r="F3">
-        <v>1.03805294487567</v>
+        <v>1.037277675524199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054396782828943</v>
+        <v>1.0534040156563</v>
       </c>
       <c r="J3">
-        <v>1.040803033949315</v>
+        <v>1.039632627881725</v>
       </c>
       <c r="K3">
-        <v>1.045737263024257</v>
+        <v>1.043937517905488</v>
       </c>
       <c r="L3">
-        <v>1.042280023203736</v>
+        <v>1.041332665083598</v>
       </c>
       <c r="M3">
-        <v>1.048221025591791</v>
+        <v>1.047454804661482</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046736071178857</v>
+        <v>1.046129663623968</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043407824913963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042143718356039</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023618063070004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02310933082224</v>
+        <v>1.02184425499211</v>
       </c>
       <c r="D4">
-        <v>1.037031631730831</v>
+        <v>1.035113244770782</v>
       </c>
       <c r="E4">
-        <v>1.033819708340936</v>
+        <v>1.032808120596902</v>
       </c>
       <c r="F4">
-        <v>1.03982949331699</v>
+        <v>1.039012168800936</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054986513886903</v>
+        <v>1.053939992455561</v>
       </c>
       <c r="J4">
-        <v>1.041939817476633</v>
+        <v>1.040705220438601</v>
       </c>
       <c r="K4">
-        <v>1.046702753094563</v>
+        <v>1.044805578386486</v>
       </c>
       <c r="L4">
-        <v>1.043526399683298</v>
+        <v>1.042526070983328</v>
       </c>
       <c r="M4">
-        <v>1.049469850126288</v>
+        <v>1.048661491653192</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047724422950356</v>
+        <v>1.047084667469696</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044091392623321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042758479298957</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02378486834338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024046500943837</v>
+        <v>1.022754957021291</v>
       </c>
       <c r="D5">
-        <v>1.037657515424963</v>
+        <v>1.035698657194376</v>
       </c>
       <c r="E5">
-        <v>1.034564028925594</v>
+        <v>1.03353044273512</v>
       </c>
       <c r="F5">
-        <v>1.040573040980586</v>
+        <v>1.039738227329636</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055231973340179</v>
+        <v>1.054163047566893</v>
       </c>
       <c r="J5">
-        <v>1.04241534598527</v>
+        <v>1.041154001133638</v>
       </c>
       <c r="K5">
-        <v>1.047107982885279</v>
+        <v>1.045170215651445</v>
       </c>
       <c r="L5">
-        <v>1.044047848703534</v>
+        <v>1.043025460669181</v>
       </c>
       <c r="M5">
-        <v>1.049992297094366</v>
+        <v>1.049166398404814</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048137900490785</v>
+        <v>1.047484263595422</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044385049330534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043024147680274</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023854862378921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024206854496356</v>
+        <v>1.022910784942385</v>
       </c>
       <c r="D6">
-        <v>1.037767174620969</v>
+        <v>1.035801455295255</v>
       </c>
       <c r="E6">
-        <v>1.034691704775112</v>
+        <v>1.033654343264723</v>
       </c>
       <c r="F6">
-        <v>1.040699976754172</v>
+        <v>1.039862164651402</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055275624810139</v>
+        <v>1.054202888952794</v>
       </c>
       <c r="J6">
-        <v>1.042498328007862</v>
+        <v>1.041232409565756</v>
       </c>
       <c r="K6">
-        <v>1.047180579727389</v>
+        <v>1.045235929608375</v>
       </c>
       <c r="L6">
-        <v>1.044138117082127</v>
+        <v>1.043111943269945</v>
       </c>
       <c r="M6">
-        <v>1.050082128251985</v>
+        <v>1.049253222333108</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048208995082632</v>
+        <v>1.047552978252657</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04444507373855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04308017695886</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023868050998088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023131341275428</v>
+        <v>1.021865621384624</v>
       </c>
       <c r="D7">
-        <v>1.037053076645479</v>
+        <v>1.0351338876989</v>
       </c>
       <c r="E7">
-        <v>1.033837837096938</v>
+        <v>1.032825674728259</v>
       </c>
       <c r="F7">
-        <v>1.039845886765898</v>
+        <v>1.039028112972551</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05499707078776</v>
+        <v>1.053950075176793</v>
       </c>
       <c r="J7">
-        <v>1.04195541722917</v>
+        <v>1.040720178818271</v>
       </c>
       <c r="K7">
-        <v>1.046721102979139</v>
+        <v>1.044823127028678</v>
       </c>
       <c r="L7">
-        <v>1.043541456605918</v>
+        <v>1.042540555445572</v>
       </c>
       <c r="M7">
-        <v>1.049483215680691</v>
+        <v>1.048674409532468</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047735000785814</v>
+        <v>1.047094891012667</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04412436215333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04279288751723</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023789875433126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01854982201844</v>
+        <v>1.017414443861992</v>
       </c>
       <c r="D8">
-        <v>1.034011087408266</v>
+        <v>1.032290737851002</v>
       </c>
       <c r="E8">
-        <v>1.030211762674762</v>
+        <v>1.029307844756896</v>
       </c>
       <c r="F8">
-        <v>1.036224871403957</v>
+        <v>1.035493214693213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053786142349014</v>
+        <v>1.052848986151096</v>
       </c>
       <c r="J8">
-        <v>1.039633283767472</v>
+        <v>1.038529273849506</v>
       </c>
       <c r="K8">
-        <v>1.044749251936861</v>
+        <v>1.043050378160704</v>
       </c>
       <c r="L8">
-        <v>1.04099747499458</v>
+        <v>1.040104933911703</v>
       </c>
       <c r="M8">
-        <v>1.046935531079061</v>
+        <v>1.046212948530918</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045718696462076</v>
+        <v>1.045146824701624</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042734656948402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041544425334805</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023447669330845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010152118926437</v>
+        <v>1.00926038220323</v>
       </c>
       <c r="D9">
-        <v>1.028451011632108</v>
+        <v>1.027098225493424</v>
       </c>
       <c r="E9">
-        <v>1.023611682773031</v>
+        <v>1.022909974017554</v>
       </c>
       <c r="F9">
-        <v>1.029653685084312</v>
+        <v>1.029083120904818</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051485376965243</v>
+        <v>1.050750612906414</v>
       </c>
       <c r="J9">
-        <v>1.035351403681361</v>
+        <v>1.034490317672214</v>
       </c>
       <c r="K9">
-        <v>1.041098760022144</v>
+        <v>1.039766436429283</v>
       </c>
       <c r="L9">
-        <v>1.036332949920401</v>
+        <v>1.035641975139941</v>
       </c>
       <c r="M9">
-        <v>1.042283299053925</v>
+        <v>1.041721331353697</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042036783875162</v>
+        <v>1.04159202492835</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040150383431274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039219041808851</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022792575858824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004397287599963</v>
+        <v>1.003674043864587</v>
       </c>
       <c r="D10">
-        <v>1.024668946265344</v>
+        <v>1.02356840315923</v>
       </c>
       <c r="E10">
-        <v>1.01916363414958</v>
+        <v>1.018601170435502</v>
       </c>
       <c r="F10">
-        <v>1.025286639926124</v>
+        <v>1.024827351636715</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049879471642125</v>
+        <v>1.049283011452041</v>
       </c>
       <c r="J10">
-        <v>1.032437520533104</v>
+        <v>1.031742646654838</v>
       </c>
       <c r="K10">
-        <v>1.038606636176971</v>
+        <v>1.037524773856078</v>
       </c>
       <c r="L10">
-        <v>1.033195294166952</v>
+        <v>1.032642505084356</v>
       </c>
       <c r="M10">
-        <v>1.039213867686915</v>
+        <v>1.038762357014618</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039658900630789</v>
+        <v>1.039301581922642</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038405050735127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037652483590308</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022338468720776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002394519749406</v>
+        <v>1.001713490154989</v>
       </c>
       <c r="D11">
-        <v>1.023414633905824</v>
+        <v>1.022385019645121</v>
       </c>
       <c r="E11">
-        <v>1.017953497688395</v>
+        <v>1.017423257977518</v>
       </c>
       <c r="F11">
-        <v>1.024505855923309</v>
+        <v>1.024073527014935</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049448754412348</v>
+        <v>1.048890262543698</v>
       </c>
       <c r="J11">
-        <v>1.031668022071384</v>
+        <v>1.031015159260862</v>
       </c>
       <c r="K11">
-        <v>1.037908092870963</v>
+        <v>1.036896783790446</v>
       </c>
       <c r="L11">
-        <v>1.03254459776726</v>
+        <v>1.032023910921343</v>
       </c>
       <c r="M11">
-        <v>1.038979966499502</v>
+        <v>1.038555296789267</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039909283162975</v>
+        <v>1.039573374550822</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037943867000198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037244412306897</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022247219039176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001840151836792</v>
+        <v>1.001162851854011</v>
       </c>
       <c r="D12">
-        <v>1.023088274911225</v>
+        <v>1.022070078351184</v>
       </c>
       <c r="E12">
-        <v>1.017771228643312</v>
+        <v>1.017242039510335</v>
       </c>
       <c r="F12">
-        <v>1.024624592766253</v>
+        <v>1.024193992427823</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049388043432071</v>
+        <v>1.048835228403041</v>
       </c>
       <c r="J12">
-        <v>1.031566836794338</v>
+        <v>1.030918079107031</v>
       </c>
       <c r="K12">
-        <v>1.037786116429111</v>
+        <v>1.036786322958909</v>
       </c>
       <c r="L12">
-        <v>1.032565700053809</v>
+        <v>1.032046200173466</v>
       </c>
       <c r="M12">
-        <v>1.039294756524607</v>
+        <v>1.038871902845352</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040484091105669</v>
+        <v>1.040149731812253</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037857626353538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037166314995728</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022251107832918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002375427065632</v>
+        <v>1.001671870549227</v>
       </c>
       <c r="D13">
-        <v>1.023469152296149</v>
+        <v>1.022416683655013</v>
       </c>
       <c r="E13">
-        <v>1.018379600276058</v>
+        <v>1.017827104930572</v>
       </c>
       <c r="F13">
-        <v>1.025464208403507</v>
+        <v>1.02501571902337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049621226460065</v>
+        <v>1.049049248961741</v>
       </c>
       <c r="J13">
-        <v>1.031987339043933</v>
+        <v>1.031313279088622</v>
       </c>
       <c r="K13">
-        <v>1.038117549311752</v>
+        <v>1.037084022168642</v>
       </c>
       <c r="L13">
-        <v>1.033120067556571</v>
+        <v>1.032577638990311</v>
       </c>
       <c r="M13">
-        <v>1.040076838549572</v>
+        <v>1.039636373818883</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04137864244977</v>
+        <v>1.041030444950443</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038089475899275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037374066375516</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022335022790573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003242643581048</v>
+        <v>1.002507429481434</v>
       </c>
       <c r="D14">
-        <v>1.024056636071979</v>
+        <v>1.022959749188347</v>
       </c>
       <c r="E14">
-        <v>1.019160759254448</v>
+        <v>1.018581215929586</v>
       </c>
       <c r="F14">
-        <v>1.026375265831868</v>
+        <v>1.025905604993378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049917129036436</v>
+        <v>1.049320644295575</v>
       </c>
       <c r="J14">
-        <v>1.032516606446477</v>
+        <v>1.031811772762894</v>
       </c>
       <c r="K14">
-        <v>1.038555098718907</v>
+        <v>1.037477708350864</v>
       </c>
       <c r="L14">
-        <v>1.033746664708911</v>
+        <v>1.033177544630161</v>
       </c>
       <c r="M14">
-        <v>1.040832694035345</v>
+        <v>1.040371325692333</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042149147937067</v>
+        <v>1.041784474710701</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03840025403858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03765396597758</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022430086393131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003697079491932</v>
+        <v>1.002947287810598</v>
       </c>
       <c r="D15">
-        <v>1.024360477604382</v>
+        <v>1.023242392290622</v>
       </c>
       <c r="E15">
-        <v>1.019533688593676</v>
+        <v>1.018941958400025</v>
       </c>
       <c r="F15">
-        <v>1.026772294199898</v>
+        <v>1.026292988540598</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050057754393226</v>
+        <v>1.049449633660477</v>
       </c>
       <c r="J15">
-        <v>1.032766697105381</v>
+        <v>1.032047617986761</v>
       </c>
       <c r="K15">
-        <v>1.038767702496536</v>
+        <v>1.037669340335847</v>
       </c>
       <c r="L15">
-        <v>1.034026460692747</v>
+        <v>1.033445290396411</v>
       </c>
       <c r="M15">
-        <v>1.041137163853778</v>
+        <v>1.040666255008584</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042427273122405</v>
+        <v>1.042055068682975</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038556416757126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037795872083056</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022472823349698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006028492209707</v>
+        <v>1.005212264805187</v>
       </c>
       <c r="D16">
-        <v>1.02588798538526</v>
+        <v>1.024669366976114</v>
       </c>
       <c r="E16">
-        <v>1.021302668538581</v>
+        <v>1.020656725992639</v>
       </c>
       <c r="F16">
-        <v>1.02849194215748</v>
+        <v>1.027969216794897</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050707749344477</v>
+        <v>1.050044727970595</v>
       </c>
       <c r="J16">
-        <v>1.033928924846841</v>
+        <v>1.033144470283757</v>
       </c>
       <c r="K16">
-        <v>1.039769690427932</v>
+        <v>1.038571636478563</v>
       </c>
       <c r="L16">
-        <v>1.035262081262963</v>
+        <v>1.034627158025469</v>
       </c>
       <c r="M16">
-        <v>1.042329915338254</v>
+        <v>1.041815945917714</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043331377786069</v>
+        <v>1.042925126844716</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03926800542483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038437274498696</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02265514039893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007365384409172</v>
+        <v>1.006514704415607</v>
       </c>
       <c r="D17">
-        <v>1.026754778722608</v>
+        <v>1.025482271039067</v>
       </c>
       <c r="E17">
-        <v>1.022252735121502</v>
+        <v>1.021579222473116</v>
       </c>
       <c r="F17">
-        <v>1.029330276306518</v>
+        <v>1.028785215036921</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051049635099171</v>
+        <v>1.050357270261437</v>
       </c>
       <c r="J17">
-        <v>1.034543434818367</v>
+        <v>1.033724813791256</v>
       </c>
       <c r="K17">
-        <v>1.040309416674319</v>
+        <v>1.039057783949822</v>
       </c>
       <c r="L17">
-        <v>1.035881527568691</v>
+        <v>1.035219180908374</v>
       </c>
       <c r="M17">
-        <v>1.04284286720151</v>
+        <v>1.042306681927566</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043608052718298</v>
+        <v>1.043184199866424</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039652185636255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038783820440128</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022744618508912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007954814614824</v>
+        <v>1.007095077372046</v>
       </c>
       <c r="D18">
-        <v>1.027114600276743</v>
+        <v>1.025824687665074</v>
       </c>
       <c r="E18">
-        <v>1.022551641664503</v>
+        <v>1.02187194419389</v>
       </c>
       <c r="F18">
-        <v>1.029428512024463</v>
+        <v>1.028877911443721</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051146662743208</v>
+        <v>1.05044506437109</v>
       </c>
       <c r="J18">
-        <v>1.03472063086583</v>
+        <v>1.033892695191008</v>
       </c>
       <c r="K18">
-        <v>1.040481157216735</v>
+        <v>1.039212060628658</v>
       </c>
       <c r="L18">
-        <v>1.035992136385491</v>
+        <v>1.035323525287747</v>
       </c>
       <c r="M18">
-        <v>1.042757895741522</v>
+        <v>1.042216121171396</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043303719296092</v>
+        <v>1.042875359218836</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039762027485735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038880175381939</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022756766450279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007875223531166</v>
+        <v>1.007029192245589</v>
       </c>
       <c r="D19">
-        <v>1.027030038107518</v>
+        <v>1.025755665924254</v>
       </c>
       <c r="E19">
-        <v>1.02226184266609</v>
+        <v>1.021595072011489</v>
       </c>
       <c r="F19">
-        <v>1.028850287496185</v>
+        <v>1.0283091585477</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051031699684433</v>
+        <v>1.050339029627809</v>
       </c>
       <c r="J19">
-        <v>1.03451107236305</v>
+        <v>1.03369615934392</v>
       </c>
       <c r="K19">
-        <v>1.040335825339101</v>
+        <v>1.039081912746405</v>
       </c>
       <c r="L19">
-        <v>1.03564451754883</v>
+        <v>1.034988572108889</v>
       </c>
       <c r="M19">
-        <v>1.042126963941314</v>
+        <v>1.041594475330581</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042480093005629</v>
+        <v>1.042058937994893</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039665640176526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03879515077913</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022704618261355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005912998840533</v>
+        <v>1.005144554850041</v>
       </c>
       <c r="D20">
-        <v>1.025680098191621</v>
+        <v>1.024512904128727</v>
       </c>
       <c r="E20">
-        <v>1.020336840076602</v>
+        <v>1.019736887740775</v>
       </c>
       <c r="F20">
-        <v>1.026436236451534</v>
+        <v>1.025947013286489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050317626446921</v>
+        <v>1.049684523495324</v>
       </c>
       <c r="J20">
-        <v>1.033217871921239</v>
+        <v>1.032478592905793</v>
       </c>
       <c r="K20">
-        <v>1.039285939368618</v>
+        <v>1.038137996303074</v>
       </c>
       <c r="L20">
-        <v>1.034031274452631</v>
+        <v>1.033441344256693</v>
       </c>
       <c r="M20">
-        <v>1.040029636394158</v>
+        <v>1.039548460042092</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040293960606159</v>
+        <v>1.039913160390457</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038927240512592</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038132067966039</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022467652839036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001491144150551</v>
+        <v>1.000856834904073</v>
       </c>
       <c r="D21">
-        <v>1.022767833764568</v>
+        <v>1.021798620417822</v>
       </c>
       <c r="E21">
-        <v>1.016867583015256</v>
+        <v>1.016378792271462</v>
       </c>
       <c r="F21">
-        <v>1.022955324743072</v>
+        <v>1.022554791859073</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04903937861459</v>
+        <v>1.048514818981602</v>
       </c>
       <c r="J21">
-        <v>1.030926653265368</v>
+        <v>1.030318775833141</v>
       </c>
       <c r="K21">
-        <v>1.037330330349118</v>
+        <v>1.036378454211414</v>
       </c>
       <c r="L21">
-        <v>1.031536288534088</v>
+        <v>1.031056368343138</v>
       </c>
       <c r="M21">
-        <v>1.037514472428422</v>
+        <v>1.037121095660238</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038262575494792</v>
+        <v>1.037951243119754</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037547776831549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03689156367648</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022099105790162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9986816014194368</v>
+        <v>0.998132732816393</v>
       </c>
       <c r="D22">
-        <v>1.020919203316714</v>
+        <v>1.020075377753186</v>
       </c>
       <c r="E22">
-        <v>1.014690635781898</v>
+        <v>1.014272467998541</v>
       </c>
       <c r="F22">
-        <v>1.020800563982724</v>
+        <v>1.020456493824289</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048221843910937</v>
+        <v>1.047765940026346</v>
       </c>
       <c r="J22">
-        <v>1.029479769462893</v>
+        <v>1.028955101341198</v>
       </c>
       <c r="K22">
-        <v>1.036087333745224</v>
+        <v>1.035259359128559</v>
       </c>
       <c r="L22">
-        <v>1.029976579814976</v>
+        <v>1.029566389511377</v>
       </c>
       <c r="M22">
-        <v>1.035970920939174</v>
+        <v>1.035633311837615</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037040953130395</v>
+        <v>1.036773756822002</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036655473292627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036085559158552</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021862943488292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000167559992243</v>
+        <v>0.9995736034933373</v>
       </c>
       <c r="D23">
-        <v>1.02189069826236</v>
+        <v>1.0209804982658</v>
       </c>
       <c r="E23">
-        <v>1.015840396741059</v>
+        <v>1.015385035079239</v>
       </c>
       <c r="F23">
-        <v>1.021939905275356</v>
+        <v>1.021566080231834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048651268228479</v>
+        <v>1.048159083830097</v>
       </c>
       <c r="J23">
-        <v>1.03024138284767</v>
+        <v>1.029672847997747</v>
       </c>
       <c r="K23">
-        <v>1.036737553060622</v>
+        <v>1.03584401683204</v>
       </c>
       <c r="L23">
-        <v>1.030798750343325</v>
+        <v>1.030351850512601</v>
       </c>
       <c r="M23">
-        <v>1.036785860302131</v>
+        <v>1.036418873639283</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03768592581885</v>
+        <v>1.037395479282034</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037105601715071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036488384618665</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021985231215365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005919882873104</v>
+        <v>1.005153085593849</v>
       </c>
       <c r="D24">
-        <v>1.025670481684766</v>
+        <v>1.024504604678008</v>
       </c>
       <c r="E24">
-        <v>1.020308758273068</v>
+        <v>1.019710474551717</v>
       </c>
       <c r="F24">
-        <v>1.026370466966632</v>
+        <v>1.025882445432701</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050300459878941</v>
+        <v>1.049668225349441</v>
       </c>
       <c r="J24">
-        <v>1.033191940838833</v>
+        <v>1.032454204596236</v>
       </c>
       <c r="K24">
-        <v>1.039261308676335</v>
+        <v>1.03811463676195</v>
       </c>
       <c r="L24">
-        <v>1.033988374981229</v>
+        <v>1.033400073401098</v>
       </c>
       <c r="M24">
-        <v>1.03994979029709</v>
+        <v>1.039469786849555</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040189969719852</v>
+        <v>1.039810078910667</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038882532335652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038085575951527</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022457194539435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012376392641964</v>
+        <v>1.011419328680652</v>
       </c>
       <c r="D25">
-        <v>1.029930640179928</v>
+        <v>1.028480195062431</v>
       </c>
       <c r="E25">
-        <v>1.02535531715645</v>
+        <v>1.024599343862534</v>
       </c>
       <c r="F25">
-        <v>1.031385002664302</v>
+        <v>1.030771192851809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052110267304126</v>
+        <v>1.05132174231972</v>
       </c>
       <c r="J25">
-        <v>1.036494301847076</v>
+        <v>1.035568404920776</v>
       </c>
       <c r="K25">
-        <v>1.042081432978396</v>
+        <v>1.040651913725355</v>
       </c>
       <c r="L25">
-        <v>1.037572374210904</v>
+        <v>1.036827421925808</v>
       </c>
       <c r="M25">
-        <v>1.04351488791227</v>
+        <v>1.042909892962884</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043011501153966</v>
+        <v>1.042532689718318</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040873638527567</v>
+        <v>1.03987638811589</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022973807080452</v>
       </c>
     </row>
   </sheetData>
